--- a/2023_outputs/charts_and_tables/tables/tbl_2023_rate_ole_category.xlsx
+++ b/2023_outputs/charts_and_tables/tables/tbl_2023_rate_ole_category.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andy.kingham\Work\Analytical Projects\Projects\Statement_redesign\Annual_Report\AnnRpt-FMA-OLE-Chapter\2023_outputs\charts_and_tables\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A03490C1-1FFD-43D6-919F-CB94E6DDBE1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD841AF-637F-4E09-B376-D530F86740CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023_OLD" sheetId="2" r:id="rId1"/>
@@ -20,12 +20,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">tbl_2023_rate_ole_category!$A$1:$R$76</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="55">
   <si>
     <t>Coverage Type</t>
   </si>
@@ -195,10 +195,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -1130,48 +1130,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1181,37 +1139,37 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1229,47 +1187,11 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1278,16 +1200,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1299,33 +1212,118 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1334,18 +1332,20 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1392,7 +1392,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="26">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1518,119 +1518,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1638,119 +1525,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2174,11 +1948,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E30" sqref="A30:XFD30"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2204,103 +1978,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="10" t="s">
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="9"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="53"/>
     </row>
     <row r="2" spans="1:21" ht="87" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="17" t="s">
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="18" t="s">
+      <c r="L2" s="60"/>
+      <c r="M2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="Q2" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="69.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="33" t="s">
+      <c r="A3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="38"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="55"/>
       <c r="T3" s="2" t="s">
         <v>53</v>
       </c>
@@ -2309,55 +2083,55 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="63">
-        <v>0</v>
-      </c>
-      <c r="G4" s="20">
+      <c r="F4" s="34">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
         <v>7</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="6">
         <v>129</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="7">
         <v>1.05171907756813</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="7">
         <v>11.741341719077599</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="15">
         <v>5.3908355795148202E-2</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="7">
         <v>2.9252596167909899</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="7">
         <v>43.8788942518648</v>
       </c>
-      <c r="N4" s="21">
+      <c r="N4" s="7">
         <v>1.12768758227293</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4" s="7">
         <v>35.103115401491898</v>
       </c>
-      <c r="P4" s="21">
+      <c r="P4" s="7">
         <v>1.1701038467164</v>
       </c>
-      <c r="Q4" s="22">
+      <c r="Q4" s="8">
         <v>6.8130921619293696</v>
       </c>
       <c r="T4" t="s">
@@ -2368,49 +2142,49 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="45" t="s">
+      <c r="A5" s="46"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="48">
+      <c r="F5" s="24">
         <v>1</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="9">
         <v>1</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="9">
         <v>1</v>
       </c>
-      <c r="I5" s="24">
-        <v>0</v>
-      </c>
-      <c r="J5" s="24">
-        <v>0</v>
-      </c>
-      <c r="K5" s="30">
-        <v>0</v>
-      </c>
-      <c r="L5" s="24">
-        <v>0</v>
-      </c>
-      <c r="M5" s="24">
-        <v>0</v>
-      </c>
-      <c r="N5" s="24">
-        <v>0</v>
-      </c>
-      <c r="O5" s="24">
-        <v>0</v>
-      </c>
-      <c r="P5" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="25">
+      <c r="I5" s="10">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0</v>
+      </c>
+      <c r="K5" s="16">
+        <v>0</v>
+      </c>
+      <c r="L5" s="10">
+        <v>0</v>
+      </c>
+      <c r="M5" s="10">
+        <v>0</v>
+      </c>
+      <c r="N5" s="10">
+        <v>0</v>
+      </c>
+      <c r="O5" s="10">
+        <v>0</v>
+      </c>
+      <c r="P5" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="11">
         <v>0</v>
       </c>
       <c r="T5" t="s">
@@ -2421,47 +2195,47 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="55" t="s">
+      <c r="A6" s="46"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="24">
         <v>1</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="9">
         <v>1</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="9">
         <v>19</v>
       </c>
-      <c r="I6" s="24">
-        <v>0</v>
-      </c>
-      <c r="J6" s="24">
-        <v>0</v>
-      </c>
-      <c r="K6" s="30">
-        <v>0</v>
-      </c>
-      <c r="L6" s="24">
-        <v>0</v>
-      </c>
-      <c r="M6" s="24">
-        <v>0</v>
-      </c>
-      <c r="N6" s="24">
-        <v>0</v>
-      </c>
-      <c r="O6" s="24">
-        <v>0</v>
-      </c>
-      <c r="P6" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="25">
+      <c r="I6" s="10">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0</v>
+      </c>
+      <c r="K6" s="16">
+        <v>0</v>
+      </c>
+      <c r="L6" s="10">
+        <v>0</v>
+      </c>
+      <c r="M6" s="10">
+        <v>0</v>
+      </c>
+      <c r="N6" s="10">
+        <v>0</v>
+      </c>
+      <c r="O6" s="10">
+        <v>0</v>
+      </c>
+      <c r="P6" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="11">
         <v>0</v>
       </c>
       <c r="T6" t="s">
@@ -2472,49 +2246,49 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="45" t="s">
+      <c r="A7" s="46"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="48">
-        <v>0</v>
-      </c>
-      <c r="G7" s="23">
+      <c r="F7" s="24">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
         <v>33</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="9">
         <v>1598</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="10">
         <v>27.653544080326601</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="10">
         <v>210.784974070396</v>
       </c>
-      <c r="K7" s="30">
+      <c r="K7" s="16">
         <v>0.23098913664951401</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="10">
         <v>4.7701135853779499</v>
       </c>
-      <c r="M7" s="24">
+      <c r="M7" s="10">
         <v>43.391503530356303</v>
       </c>
-      <c r="N7" s="24">
+      <c r="N7" s="10">
         <v>9.2956998134460491</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="10">
         <v>54.112451885611698</v>
       </c>
-      <c r="P7" s="24">
+      <c r="P7" s="10">
         <v>6.4927236503424703</v>
       </c>
-      <c r="Q7" s="25">
+      <c r="Q7" s="11">
         <v>13.8429981921847</v>
       </c>
       <c r="T7" t="s">
@@ -2525,47 +2299,47 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="55" t="s">
+      <c r="A8" s="46"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="48">
-        <v>0</v>
-      </c>
-      <c r="G8" s="23">
+      <c r="F8" s="24">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
         <v>3</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="9">
         <v>44</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="10">
         <v>0.29473684210526302</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="10">
         <v>1.4736842105263199</v>
       </c>
-      <c r="K8" s="30">
-        <v>0</v>
-      </c>
-      <c r="L8" s="24">
-        <v>0</v>
-      </c>
-      <c r="M8" s="24">
-        <v>0</v>
-      </c>
-      <c r="N8" s="24">
-        <v>0</v>
-      </c>
-      <c r="O8" s="24">
-        <v>0</v>
-      </c>
-      <c r="P8" s="24">
+      <c r="K8" s="16">
+        <v>0</v>
+      </c>
+      <c r="L8" s="10">
+        <v>0</v>
+      </c>
+      <c r="M8" s="10">
+        <v>0</v>
+      </c>
+      <c r="N8" s="10">
+        <v>0</v>
+      </c>
+      <c r="O8" s="10">
+        <v>0</v>
+      </c>
+      <c r="P8" s="10">
         <v>33.492822966507198</v>
       </c>
-      <c r="Q8" s="25">
+      <c r="Q8" s="11">
         <v>0</v>
       </c>
       <c r="T8" t="s">
@@ -2576,51 +2350,51 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43" t="s">
+      <c r="A9" s="46"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="48">
-        <v>0</v>
-      </c>
-      <c r="G9" s="23">
+      <c r="F9" s="24">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
         <v>76</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="9">
         <v>4837</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="10">
         <v>128.80638471595401</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="10">
         <v>655.32771155612897</v>
       </c>
-      <c r="K9" s="30">
+      <c r="K9" s="16">
         <v>0.86287903879963701</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="10">
         <v>13.557743838902701</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="10">
         <v>4.5060746004327497</v>
       </c>
-      <c r="N9" s="24">
+      <c r="N9" s="10">
         <v>20.072273079948001</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9" s="10">
         <v>41.9006106570478</v>
       </c>
-      <c r="P9" s="24">
+      <c r="P9" s="10">
         <v>9.5906444197872105</v>
       </c>
-      <c r="Q9" s="25">
+      <c r="Q9" s="11">
         <v>45.854917525471102</v>
       </c>
       <c r="T9" t="s">
@@ -2631,47 +2405,47 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="55" t="s">
+      <c r="A10" s="46"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="24">
         <v>1</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="9">
         <v>1</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="9">
         <v>1</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="10">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="10">
         <v>0.22916666666666699</v>
       </c>
-      <c r="K10" s="30">
+      <c r="K10" s="16">
         <v>3.125E-2</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L10" s="10">
         <v>31.25</v>
       </c>
-      <c r="M10" s="24">
-        <v>0</v>
-      </c>
-      <c r="N10" s="24">
+      <c r="M10" s="10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="10">
         <v>93.75</v>
       </c>
-      <c r="O10" s="24">
+      <c r="O10" s="10">
         <v>52.0833333333333</v>
       </c>
-      <c r="P10" s="24">
+      <c r="P10" s="10">
         <v>52.0833333333333</v>
       </c>
-      <c r="Q10" s="25">
+      <c r="Q10" s="11">
         <v>0</v>
       </c>
       <c r="T10" t="s">
@@ -2682,49 +2456,49 @@
       </c>
     </row>
     <row r="11" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="44" t="s">
+      <c r="A11" s="46"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="48">
-        <v>0</v>
-      </c>
-      <c r="G11" s="23">
+      <c r="F11" s="24">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
         <v>36</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="9">
         <v>648</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="10">
         <v>15.8243843169309</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="10">
         <v>52.772349793084601</v>
       </c>
-      <c r="K11" s="30">
+      <c r="K11" s="16">
         <v>2.01895346410867E-2</v>
       </c>
-      <c r="L11" s="24">
+      <c r="L11" s="10">
         <v>1.1216408133937099</v>
       </c>
-      <c r="M11" s="24">
+      <c r="M11" s="10">
         <v>1.6020631103485801</v>
       </c>
-      <c r="N11" s="24">
+      <c r="N11" s="10">
         <v>15.1585213355861</v>
       </c>
-      <c r="O11" s="24">
+      <c r="O11" s="10">
         <v>16.503102859285001</v>
       </c>
-      <c r="P11" s="24">
+      <c r="P11" s="10">
         <v>39.115882394001098</v>
       </c>
-      <c r="Q11" s="25">
+      <c r="Q11" s="11">
         <v>7.9376008964667797</v>
       </c>
       <c r="T11" t="s">
@@ -2735,49 +2509,49 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="45" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="48">
-        <v>0</v>
-      </c>
-      <c r="G12" s="23">
+      <c r="F12" s="24">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
         <v>35</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="9">
         <v>831</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="10">
         <v>30.345522109942099</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="10">
         <v>154.31104162157001</v>
       </c>
-      <c r="K12" s="30">
+      <c r="K12" s="16">
         <v>8.6688215602398005E-2</v>
       </c>
-      <c r="L12" s="24">
+      <c r="L12" s="10">
         <v>3.6511282143007602</v>
       </c>
-      <c r="M12" s="24">
+      <c r="M12" s="10">
         <v>7.4199521807471802</v>
       </c>
-      <c r="N12" s="24">
+      <c r="N12" s="10">
         <v>19.001275320921799</v>
       </c>
-      <c r="O12" s="24">
+      <c r="O12" s="10">
         <v>21.970783575831899</v>
       </c>
-      <c r="P12" s="24">
+      <c r="P12" s="10">
         <v>125.404185098488</v>
       </c>
-      <c r="Q12" s="25">
+      <c r="Q12" s="11">
         <v>8.2458664900601608</v>
       </c>
       <c r="T12" t="s">
@@ -2788,47 +2562,47 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="55" t="s">
+      <c r="A13" s="46"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="48">
-        <v>0</v>
-      </c>
-      <c r="G13" s="23">
+      <c r="F13" s="24">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
         <v>7</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="9">
         <v>144</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="10">
         <v>1.3925548256364999</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="10">
         <v>1.8119096643461801</v>
       </c>
-      <c r="K13" s="30">
+      <c r="K13" s="16">
         <v>8.9861751152073704E-2</v>
       </c>
-      <c r="L13" s="24">
+      <c r="L13" s="10">
         <v>4.3682795698924703</v>
       </c>
-      <c r="M13" s="24">
+      <c r="M13" s="10">
         <v>3.6938534278959798</v>
       </c>
-      <c r="N13" s="24">
+      <c r="N13" s="10">
         <v>3.6938534278959798</v>
       </c>
-      <c r="O13" s="24">
+      <c r="O13" s="10">
         <v>0.82671957671957697</v>
       </c>
-      <c r="P13" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="25">
+      <c r="P13" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="11">
         <v>0</v>
       </c>
       <c r="T13" t="s">
@@ -2839,49 +2613,49 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="44" t="s">
+      <c r="A14" s="46"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="55" t="s">
+      <c r="E14" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="48">
-        <v>0</v>
-      </c>
-      <c r="G14" s="23">
+      <c r="F14" s="24">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
         <v>6</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="9">
         <v>53</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="10">
         <v>1.1691799215038201</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="10">
         <v>1.1691799215038201</v>
       </c>
-      <c r="K14" s="30">
-        <v>0</v>
-      </c>
-      <c r="L14" s="24">
-        <v>0</v>
-      </c>
-      <c r="M14" s="24">
+      <c r="K14" s="16">
+        <v>0</v>
+      </c>
+      <c r="L14" s="10">
+        <v>0</v>
+      </c>
+      <c r="M14" s="10">
         <v>8.8317944600561997</v>
       </c>
-      <c r="N14" s="24">
+      <c r="N14" s="10">
         <v>10.297264326332099</v>
       </c>
-      <c r="O14" s="24">
+      <c r="O14" s="10">
         <v>1.4654698662758701</v>
       </c>
-      <c r="P14" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="25">
+      <c r="P14" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="11">
         <v>1.4654698662758701</v>
       </c>
       <c r="T14" t="s">
@@ -2892,51 +2666,51 @@
       </c>
     </row>
     <row r="15" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43" t="s">
+      <c r="A15" s="46"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="48">
-        <v>0</v>
-      </c>
-      <c r="G15" s="23">
+      <c r="F15" s="24">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9">
         <v>4</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="9">
         <v>113</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="10">
         <v>2.6329629629629601</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J15" s="10">
         <v>5.51296296296296</v>
       </c>
-      <c r="K15" s="30">
-        <v>0</v>
-      </c>
-      <c r="L15" s="24">
-        <v>0</v>
-      </c>
-      <c r="M15" s="24">
+      <c r="K15" s="16">
+        <v>0</v>
+      </c>
+      <c r="L15" s="10">
+        <v>0</v>
+      </c>
+      <c r="M15" s="10">
         <v>8.4955752212389406</v>
       </c>
-      <c r="N15" s="24">
+      <c r="N15" s="10">
         <v>35.293346443788899</v>
       </c>
-      <c r="O15" s="24">
+      <c r="O15" s="10">
         <v>3.6873156342182898</v>
       </c>
-      <c r="P15" s="24">
+      <c r="P15" s="10">
         <v>1.31104555883317</v>
       </c>
-      <c r="Q15" s="25">
+      <c r="Q15" s="11">
         <v>0</v>
       </c>
       <c r="T15" t="s">
@@ -2947,49 +2721,49 @@
       </c>
     </row>
     <row r="16" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="45" t="s">
+      <c r="A16" s="46"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="48">
+      <c r="F16" s="24">
         <v>1</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="9">
         <v>1</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="9">
         <v>13</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="10">
         <v>0.180555555555556</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="10">
         <v>0.180555555555556</v>
       </c>
-      <c r="K16" s="30">
-        <v>0</v>
-      </c>
-      <c r="L16" s="24">
-        <v>0</v>
-      </c>
-      <c r="M16" s="24">
-        <v>0</v>
-      </c>
-      <c r="N16" s="24">
-        <v>0</v>
-      </c>
-      <c r="O16" s="24">
+      <c r="K16" s="16">
+        <v>0</v>
+      </c>
+      <c r="L16" s="10">
+        <v>0</v>
+      </c>
+      <c r="M16" s="10">
+        <v>0</v>
+      </c>
+      <c r="N16" s="10">
+        <v>0</v>
+      </c>
+      <c r="O16" s="10">
         <v>13.8888888888889</v>
       </c>
-      <c r="P16" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="25">
+      <c r="P16" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="11">
         <v>0</v>
       </c>
       <c r="T16" t="s">
@@ -3000,47 +2774,47 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="55" t="s">
+      <c r="A17" s="46"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="48">
+      <c r="F17" s="24">
         <v>1</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="9">
         <v>1</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="9">
         <v>29</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="10">
         <v>0.40277777777777801</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="10">
         <v>0.40277777777777801</v>
       </c>
-      <c r="K17" s="30">
-        <v>0</v>
-      </c>
-      <c r="L17" s="24">
-        <v>0</v>
-      </c>
-      <c r="M17" s="24">
-        <v>0</v>
-      </c>
-      <c r="N17" s="24">
-        <v>0</v>
-      </c>
-      <c r="O17" s="24">
+      <c r="K17" s="16">
+        <v>0</v>
+      </c>
+      <c r="L17" s="10">
+        <v>0</v>
+      </c>
+      <c r="M17" s="10">
+        <v>0</v>
+      </c>
+      <c r="N17" s="10">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10">
         <v>13.8888888888889</v>
       </c>
-      <c r="P17" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="25">
+      <c r="P17" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="11">
         <v>0</v>
       </c>
       <c r="T17" t="s">
@@ -3051,49 +2825,49 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="44" t="s">
+      <c r="A18" s="46"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="55" t="s">
+      <c r="E18" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="48">
-        <v>0</v>
-      </c>
-      <c r="G18" s="23">
+      <c r="F18" s="24">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9">
         <v>3</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="9">
         <v>52</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="10">
         <v>1.7837037037037</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J18" s="10">
         <v>1.9037037037036999</v>
       </c>
-      <c r="K18" s="30">
-        <v>0</v>
-      </c>
-      <c r="L18" s="24">
-        <v>0</v>
-      </c>
-      <c r="M18" s="24">
+      <c r="K18" s="16">
+        <v>0</v>
+      </c>
+      <c r="L18" s="10">
+        <v>0</v>
+      </c>
+      <c r="M18" s="10">
         <v>0.76923076923076905</v>
       </c>
-      <c r="N18" s="24">
+      <c r="N18" s="10">
         <v>19.458689458689499</v>
       </c>
-      <c r="O18" s="24">
-        <v>0</v>
-      </c>
-      <c r="P18" s="24">
+      <c r="O18" s="10">
+        <v>0</v>
+      </c>
+      <c r="P18" s="10">
         <v>16.381766381766401</v>
       </c>
-      <c r="Q18" s="25">
+      <c r="Q18" s="11">
         <v>0</v>
       </c>
       <c r="T18" t="s">
@@ -3104,51 +2878,51 @@
       </c>
     </row>
     <row r="19" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43" t="s">
+      <c r="A19" s="46"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="55" t="s">
+      <c r="E19" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="48">
-        <v>0</v>
-      </c>
-      <c r="G19" s="23">
+      <c r="F19" s="24">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9">
         <v>37</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="9">
         <v>1998</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="10">
         <v>47.5183864293789</v>
       </c>
-      <c r="J19" s="24">
+      <c r="J19" s="10">
         <v>473.97716457498802</v>
       </c>
-      <c r="K19" s="30">
+      <c r="K19" s="16">
         <v>0.67753960857409101</v>
       </c>
-      <c r="L19" s="24">
+      <c r="L19" s="10">
         <v>12.5470297884091</v>
       </c>
-      <c r="M19" s="24">
+      <c r="M19" s="10">
         <v>0.65629125552160195</v>
       </c>
-      <c r="N19" s="24">
+      <c r="N19" s="10">
         <v>14.0375244860018</v>
       </c>
-      <c r="O19" s="24">
+      <c r="O19" s="10">
         <v>14.1456262825181</v>
       </c>
-      <c r="P19" s="24">
+      <c r="P19" s="10">
         <v>181.40884480071199</v>
       </c>
-      <c r="Q19" s="25">
+      <c r="Q19" s="11">
         <v>14.4304914824273</v>
       </c>
       <c r="T19" t="s">
@@ -3159,49 +2933,49 @@
       </c>
     </row>
     <row r="20" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="44" t="s">
+      <c r="A20" s="46"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="55" t="s">
+      <c r="E20" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="48">
-        <v>0</v>
-      </c>
-      <c r="G20" s="23">
+      <c r="F20" s="24">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
         <v>25</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="9">
         <v>587</v>
       </c>
-      <c r="I20" s="24">
+      <c r="I20" s="10">
         <v>13.4816135706211</v>
       </c>
-      <c r="J20" s="24">
+      <c r="J20" s="10">
         <v>276.02283542501198</v>
       </c>
-      <c r="K20" s="30">
+      <c r="K20" s="16">
         <v>1.87724137931034</v>
       </c>
-      <c r="L20" s="24">
+      <c r="L20" s="10">
         <v>79.950654996181598</v>
       </c>
-      <c r="M20" s="24">
+      <c r="M20" s="10">
         <v>1.1733050621257901</v>
       </c>
-      <c r="N20" s="24">
+      <c r="N20" s="10">
         <v>13.5485963832512</v>
       </c>
-      <c r="O20" s="24">
+      <c r="O20" s="10">
         <v>42.141462840764703</v>
       </c>
-      <c r="P20" s="24">
+      <c r="P20" s="10">
         <v>271.797492484119</v>
       </c>
-      <c r="Q20" s="25">
+      <c r="Q20" s="11">
         <v>61.614783676508097</v>
       </c>
       <c r="T20" t="s">
@@ -3212,49 +2986,49 @@
       </c>
     </row>
     <row r="21" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="44" t="s">
+      <c r="A21" s="46"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="55" t="s">
+      <c r="E21" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="48">
+      <c r="F21" s="24">
         <v>1</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="9">
         <v>1</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="9">
         <v>13</v>
       </c>
-      <c r="I21" s="24">
+      <c r="I21" s="10">
         <v>0.37864077669902901</v>
       </c>
-      <c r="J21" s="24">
+      <c r="J21" s="10">
         <v>0.37864077669902901</v>
       </c>
-      <c r="K21" s="30">
-        <v>0</v>
-      </c>
-      <c r="L21" s="24">
-        <v>0</v>
-      </c>
-      <c r="M21" s="24">
-        <v>0</v>
-      </c>
-      <c r="N21" s="24">
+      <c r="K21" s="16">
+        <v>0</v>
+      </c>
+      <c r="L21" s="10">
+        <v>0</v>
+      </c>
+      <c r="M21" s="10">
+        <v>0</v>
+      </c>
+      <c r="N21" s="10">
         <v>9.7087378640776691</v>
       </c>
-      <c r="O21" s="24">
+      <c r="O21" s="10">
         <v>9.7087378640776691</v>
       </c>
-      <c r="P21" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="25">
+      <c r="P21" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="11">
         <v>9.7087378640776691</v>
       </c>
       <c r="T21" t="s">
@@ -3265,53 +3039,53 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="43" t="s">
+      <c r="A22" s="46"/>
+      <c r="B22" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="44" t="s">
+      <c r="D22" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="55" t="s">
+      <c r="E22" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="48">
-        <v>0</v>
-      </c>
-      <c r="G22" s="23">
+      <c r="F22" s="24">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9">
         <v>15</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="9">
         <v>184</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I22" s="10">
         <v>2.66870944484499</v>
       </c>
-      <c r="J22" s="24">
+      <c r="J22" s="10">
         <v>3.6113914924296999</v>
       </c>
-      <c r="K22" s="30">
+      <c r="K22" s="16">
         <v>0.112328767123288</v>
       </c>
-      <c r="L22" s="24">
+      <c r="L22" s="10">
         <v>9.1572364502680195</v>
       </c>
-      <c r="M22" s="24">
-        <v>0</v>
-      </c>
-      <c r="N22" s="24">
+      <c r="M22" s="10">
+        <v>0</v>
+      </c>
+      <c r="N22" s="10">
         <v>6.5074370709382201</v>
       </c>
-      <c r="O22" s="24">
-        <v>0</v>
-      </c>
-      <c r="P22" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="25">
+      <c r="O22" s="10">
+        <v>0</v>
+      </c>
+      <c r="P22" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="11">
         <v>3.9624541550421601</v>
       </c>
       <c r="T22" t="s">
@@ -3322,49 +3096,49 @@
       </c>
     </row>
     <row r="23" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="44" t="s">
+      <c r="A23" s="46"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="48">
-        <v>0</v>
-      </c>
-      <c r="G23" s="23">
+      <c r="F23" s="24">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9">
         <v>22</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="9">
         <v>189</v>
       </c>
-      <c r="I23" s="24">
+      <c r="I23" s="10">
         <v>2.0303030303030298</v>
       </c>
-      <c r="J23" s="24">
+      <c r="J23" s="10">
         <v>2.0303030303030298</v>
       </c>
-      <c r="K23" s="30">
-        <v>0</v>
-      </c>
-      <c r="L23" s="24">
-        <v>0</v>
-      </c>
-      <c r="M23" s="24">
-        <v>0</v>
-      </c>
-      <c r="N23" s="24">
+      <c r="K23" s="16">
+        <v>0</v>
+      </c>
+      <c r="L23" s="10">
+        <v>0</v>
+      </c>
+      <c r="M23" s="10">
+        <v>0</v>
+      </c>
+      <c r="N23" s="10">
         <v>10.7423440756774</v>
       </c>
-      <c r="O23" s="24">
-        <v>0</v>
-      </c>
-      <c r="P23" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="25">
+      <c r="O23" s="10">
+        <v>0</v>
+      </c>
+      <c r="P23" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="11">
         <v>0</v>
       </c>
       <c r="T23" t="s">
@@ -3375,51 +3149,51 @@
       </c>
     </row>
     <row r="24" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43" t="s">
+      <c r="A24" s="46"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="55" t="s">
+      <c r="E24" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="48">
-        <v>0</v>
-      </c>
-      <c r="G24" s="23">
+      <c r="F24" s="24">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
         <v>35</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="9">
         <v>1245</v>
       </c>
-      <c r="I24" s="24">
+      <c r="I24" s="10">
         <v>24.331290555155</v>
       </c>
-      <c r="J24" s="24">
+      <c r="J24" s="10">
         <v>35.388608507570297</v>
       </c>
-      <c r="K24" s="30">
+      <c r="K24" s="16">
         <v>0.29471624266144802</v>
       </c>
-      <c r="L24" s="24">
+      <c r="L24" s="10">
         <v>8.28519557682786</v>
       </c>
-      <c r="M24" s="24">
+      <c r="M24" s="10">
         <v>0.80321285140562204</v>
       </c>
-      <c r="N24" s="24">
+      <c r="N24" s="10">
         <v>6.2671739589938698</v>
       </c>
-      <c r="O24" s="24">
+      <c r="O24" s="10">
         <v>0.80321285140562204</v>
       </c>
-      <c r="P24" s="24">
+      <c r="P24" s="10">
         <v>2.4096385542168699</v>
       </c>
-      <c r="Q24" s="25">
+      <c r="Q24" s="11">
         <v>9.8561513537929706</v>
       </c>
       <c r="T24" t="s">
@@ -3430,49 +3204,49 @@
       </c>
     </row>
     <row r="25" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="54"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="44" t="s">
+      <c r="A25" s="46"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="55" t="s">
+      <c r="E25" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="48">
-        <v>0</v>
-      </c>
-      <c r="G25" s="23">
-        <v>24</v>
-      </c>
-      <c r="H25" s="23">
+      <c r="F25" s="24">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9">
+        <v>24</v>
+      </c>
+      <c r="H25" s="9">
         <v>281</v>
       </c>
-      <c r="I25" s="24">
+      <c r="I25" s="10">
         <v>1.9696969696969699</v>
       </c>
-      <c r="J25" s="24">
+      <c r="J25" s="10">
         <v>1.9696969696969699</v>
       </c>
-      <c r="K25" s="30">
-        <v>0</v>
-      </c>
-      <c r="L25" s="24">
-        <v>0</v>
-      </c>
-      <c r="M25" s="24">
-        <v>0</v>
-      </c>
-      <c r="N25" s="24">
+      <c r="K25" s="16">
+        <v>0</v>
+      </c>
+      <c r="L25" s="10">
+        <v>0</v>
+      </c>
+      <c r="M25" s="10">
+        <v>0</v>
+      </c>
+      <c r="N25" s="10">
         <v>3.4508788957187502</v>
       </c>
-      <c r="O25" s="24">
-        <v>0</v>
-      </c>
-      <c r="P25" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="25">
+      <c r="O25" s="10">
+        <v>0</v>
+      </c>
+      <c r="P25" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="11">
         <v>3.5587188612099601</v>
       </c>
       <c r="T25" t="s">
@@ -3483,53 +3257,53 @@
       </c>
     </row>
     <row r="26" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="54"/>
-      <c r="B26" s="43" t="s">
+      <c r="A26" s="46"/>
+      <c r="B26" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="44" t="s">
+      <c r="D26" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="55" t="s">
+      <c r="E26" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="48">
-        <v>0</v>
-      </c>
-      <c r="G26" s="23">
+      <c r="F26" s="24">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9">
         <v>45</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="9">
         <v>1733</v>
       </c>
-      <c r="I26" s="24">
+      <c r="I26" s="10">
         <v>37.8413921829016</v>
       </c>
-      <c r="J26" s="24">
+      <c r="J26" s="10">
         <v>131.65934845207599</v>
       </c>
-      <c r="K26" s="30">
+      <c r="K26" s="16">
         <v>0.107544581618656</v>
       </c>
-      <c r="L26" s="24">
+      <c r="L26" s="10">
         <v>2.7925598227579398</v>
       </c>
-      <c r="M26" s="24">
+      <c r="M26" s="10">
         <v>4.5542000085336296</v>
       </c>
-      <c r="N26" s="24">
+      <c r="N26" s="10">
         <v>3.8482888230888199</v>
       </c>
-      <c r="O26" s="24">
+      <c r="O26" s="10">
         <v>12.937977282139901</v>
       </c>
-      <c r="P26" s="24">
+      <c r="P26" s="10">
         <v>5.5614200844558903</v>
       </c>
-      <c r="Q26" s="25">
+      <c r="Q26" s="11">
         <v>46.277480379529202</v>
       </c>
       <c r="T26" t="s">
@@ -3540,49 +3314,49 @@
       </c>
     </row>
     <row r="27" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="45" t="s">
+      <c r="A27" s="46"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="55" t="s">
+      <c r="E27" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="48">
-        <v>0</v>
-      </c>
-      <c r="G27" s="23">
+      <c r="F27" s="24">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9">
         <v>18</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="9">
         <v>146</v>
       </c>
-      <c r="I27" s="24">
+      <c r="I27" s="10">
         <v>2.61732480154151</v>
       </c>
-      <c r="J27" s="24">
+      <c r="J27" s="10">
         <v>5.5876284167243702</v>
       </c>
-      <c r="K27" s="30">
+      <c r="K27" s="16">
         <v>3.4293552812071299E-3</v>
       </c>
-      <c r="L27" s="24">
+      <c r="L27" s="10">
         <v>0.42279722645019402</v>
       </c>
-      <c r="M27" s="24">
+      <c r="M27" s="10">
         <v>5.7233703158239599</v>
       </c>
-      <c r="N27" s="24">
+      <c r="N27" s="10">
         <v>5.5986079910948803</v>
       </c>
-      <c r="O27" s="24">
+      <c r="O27" s="10">
         <v>17.489625822271499</v>
       </c>
-      <c r="P27" s="24">
+      <c r="P27" s="10">
         <v>2.47985612080782</v>
       </c>
-      <c r="Q27" s="25">
+      <c r="Q27" s="11">
         <v>6.55717003536245</v>
       </c>
       <c r="T27" t="s">
@@ -3593,47 +3367,47 @@
       </c>
     </row>
     <row r="28" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="56"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="59" t="s">
+      <c r="A28" s="47"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="64">
-        <v>0</v>
-      </c>
-      <c r="G28" s="26">
+      <c r="F28" s="35">
+        <v>0</v>
+      </c>
+      <c r="G28" s="12">
         <v>23</v>
       </c>
-      <c r="H28" s="26">
+      <c r="H28" s="12">
         <v>648</v>
       </c>
-      <c r="I28" s="27">
+      <c r="I28" s="13">
         <v>6.54128301555685</v>
       </c>
-      <c r="J28" s="27">
+      <c r="J28" s="13">
         <v>10.7530231311999</v>
       </c>
-      <c r="K28" s="31">
+      <c r="K28" s="17">
         <v>4.2941492216854501E-3</v>
       </c>
-      <c r="L28" s="27">
+      <c r="L28" s="13">
         <v>0.15241579027587299</v>
       </c>
-      <c r="M28" s="27">
+      <c r="M28" s="13">
         <v>0.419690307254516</v>
       </c>
-      <c r="N28" s="27">
+      <c r="N28" s="13">
         <v>0.79246713408520697</v>
       </c>
-      <c r="O28" s="27">
+      <c r="O28" s="13">
         <v>3.8580246913580203E-2</v>
       </c>
-      <c r="P28" s="27">
+      <c r="P28" s="13">
         <v>4.6296296296296298</v>
       </c>
-      <c r="Q28" s="28">
+      <c r="Q28" s="14">
         <v>10.561388390606499</v>
       </c>
       <c r="T28" t="s">
@@ -3644,49 +3418,49 @@
       </c>
     </row>
     <row r="29" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="54"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="45" t="s">
+      <c r="A29" s="46"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="55" t="s">
+      <c r="E29" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="48">
+      <c r="F29" s="24">
         <v>1</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G29" s="9">
         <v>1</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="9">
         <v>2</v>
       </c>
-      <c r="I29" s="24">
-        <v>0</v>
-      </c>
-      <c r="J29" s="24">
-        <v>0</v>
-      </c>
-      <c r="K29" s="30">
-        <v>0</v>
-      </c>
-      <c r="L29" s="24">
-        <v>0</v>
-      </c>
-      <c r="M29" s="24">
-        <v>0</v>
-      </c>
-      <c r="N29" s="24">
-        <v>0</v>
-      </c>
-      <c r="O29" s="24">
-        <v>0</v>
-      </c>
-      <c r="P29" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="25">
+      <c r="I29" s="10">
+        <v>0</v>
+      </c>
+      <c r="J29" s="10">
+        <v>0</v>
+      </c>
+      <c r="K29" s="16">
+        <v>0</v>
+      </c>
+      <c r="L29" s="10">
+        <v>0</v>
+      </c>
+      <c r="M29" s="10">
+        <v>0</v>
+      </c>
+      <c r="N29" s="10">
+        <v>0</v>
+      </c>
+      <c r="O29" s="10">
+        <v>0</v>
+      </c>
+      <c r="P29" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="11">
         <v>0</v>
       </c>
       <c r="T29" t="s">
@@ -3697,47 +3471,47 @@
       </c>
     </row>
     <row r="30" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="55" t="s">
+      <c r="A30" s="46"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="48">
-        <v>0</v>
-      </c>
-      <c r="G30" s="23">
+      <c r="F30" s="24">
+        <v>0</v>
+      </c>
+      <c r="G30" s="9">
         <v>77</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H30" s="9">
         <v>448</v>
       </c>
-      <c r="I30" s="24">
+      <c r="I30" s="10">
         <v>23.4166666666667</v>
       </c>
-      <c r="J30" s="24">
+      <c r="J30" s="10">
         <v>88.7916666666667</v>
       </c>
-      <c r="K30" s="30">
+      <c r="K30" s="16">
         <v>2.5974025974026E-2</v>
       </c>
-      <c r="L30" s="24">
+      <c r="L30" s="10">
         <v>4.46428571428571</v>
       </c>
-      <c r="M30" s="24">
-        <v>0</v>
-      </c>
-      <c r="N30" s="24">
+      <c r="M30" s="10">
+        <v>0</v>
+      </c>
+      <c r="N30" s="10">
         <v>15.4389880952381</v>
       </c>
-      <c r="O30" s="24">
+      <c r="O30" s="10">
         <v>33.482142857142897</v>
       </c>
-      <c r="P30" s="24">
+      <c r="P30" s="10">
         <v>26.785714285714299</v>
       </c>
-      <c r="Q30" s="25">
+      <c r="Q30" s="11">
         <v>118.024553571429</v>
       </c>
       <c r="T30" t="s">
@@ -3748,47 +3522,47 @@
       </c>
     </row>
     <row r="31" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="54"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="55" t="s">
+      <c r="A31" s="46"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F31" s="48">
-        <v>0</v>
-      </c>
-      <c r="G31" s="23">
+      <c r="F31" s="24">
+        <v>0</v>
+      </c>
+      <c r="G31" s="9">
         <v>6</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="9">
         <v>21</v>
       </c>
-      <c r="I31" s="24">
+      <c r="I31" s="10">
         <v>1</v>
       </c>
-      <c r="J31" s="24">
+      <c r="J31" s="10">
         <v>2</v>
       </c>
-      <c r="K31" s="30">
-        <v>0</v>
-      </c>
-      <c r="L31" s="24">
-        <v>0</v>
-      </c>
-      <c r="M31" s="24">
-        <v>0</v>
-      </c>
-      <c r="N31" s="24">
+      <c r="K31" s="16">
+        <v>0</v>
+      </c>
+      <c r="L31" s="10">
+        <v>0</v>
+      </c>
+      <c r="M31" s="10">
+        <v>0</v>
+      </c>
+      <c r="N31" s="10">
         <v>95.238095238095198</v>
       </c>
-      <c r="O31" s="24">
-        <v>0</v>
-      </c>
-      <c r="P31" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="25">
+      <c r="O31" s="10">
+        <v>0</v>
+      </c>
+      <c r="P31" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="11">
         <v>0</v>
       </c>
       <c r="T31" t="s">
@@ -3799,51 +3573,51 @@
       </c>
     </row>
     <row r="32" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="54"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43" t="s">
+      <c r="A32" s="46"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="45" t="s">
+      <c r="D32" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="55" t="s">
+      <c r="E32" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="48">
-        <v>0</v>
-      </c>
-      <c r="G32" s="23">
+      <c r="F32" s="24">
+        <v>0</v>
+      </c>
+      <c r="G32" s="9">
         <v>26</v>
       </c>
-      <c r="H32" s="23">
+      <c r="H32" s="9">
         <v>129</v>
       </c>
-      <c r="I32" s="24">
+      <c r="I32" s="10">
         <v>8.6666666666666696</v>
       </c>
-      <c r="J32" s="24">
+      <c r="J32" s="10">
         <v>22.6666666666667</v>
       </c>
-      <c r="K32" s="30">
-        <v>0</v>
-      </c>
-      <c r="L32" s="24">
-        <v>0</v>
-      </c>
-      <c r="M32" s="24">
-        <v>0</v>
-      </c>
-      <c r="N32" s="24">
+      <c r="K32" s="16">
+        <v>0</v>
+      </c>
+      <c r="L32" s="10">
+        <v>0</v>
+      </c>
+      <c r="M32" s="10">
+        <v>0</v>
+      </c>
+      <c r="N32" s="10">
         <v>50.645994832041303</v>
       </c>
-      <c r="O32" s="24">
-        <v>0</v>
-      </c>
-      <c r="P32" s="24">
+      <c r="O32" s="10">
+        <v>0</v>
+      </c>
+      <c r="P32" s="10">
         <v>43.410852713178301</v>
       </c>
-      <c r="Q32" s="25">
+      <c r="Q32" s="11">
         <v>81.653746770025805</v>
       </c>
       <c r="T32" t="s">
@@ -3854,47 +3628,47 @@
       </c>
     </row>
     <row r="33" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="54"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="55" t="s">
+      <c r="A33" s="46"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F33" s="48">
-        <v>0</v>
-      </c>
-      <c r="G33" s="23">
+      <c r="F33" s="24">
+        <v>0</v>
+      </c>
+      <c r="G33" s="9">
         <v>43</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H33" s="9">
         <v>150</v>
       </c>
-      <c r="I33" s="24">
+      <c r="I33" s="10">
         <v>16.491456582633099</v>
       </c>
-      <c r="J33" s="24">
+      <c r="J33" s="10">
         <v>44.777170868347298</v>
       </c>
-      <c r="K33" s="30">
+      <c r="K33" s="16">
         <v>0.116279069767442</v>
       </c>
-      <c r="L33" s="24">
+      <c r="L33" s="10">
         <v>33.3333333333333</v>
       </c>
-      <c r="M33" s="24">
+      <c r="M33" s="10">
         <v>73.3333333333333</v>
       </c>
-      <c r="N33" s="24">
+      <c r="N33" s="10">
         <v>20.730158730158699</v>
       </c>
-      <c r="O33" s="24">
-        <v>0</v>
-      </c>
-      <c r="P33" s="24">
+      <c r="O33" s="10">
+        <v>0</v>
+      </c>
+      <c r="P33" s="10">
         <v>22.8160597572362</v>
       </c>
-      <c r="Q33" s="25">
+      <c r="Q33" s="11">
         <v>148.30158730158701</v>
       </c>
       <c r="T33" t="s">
@@ -3905,51 +3679,51 @@
       </c>
     </row>
     <row r="34" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="54"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43" t="s">
+      <c r="A34" s="46"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="44" t="s">
+      <c r="D34" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E34" s="55" t="s">
+      <c r="E34" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="48">
+      <c r="F34" s="24">
         <v>1</v>
       </c>
-      <c r="G34" s="23">
+      <c r="G34" s="9">
         <v>1</v>
       </c>
-      <c r="H34" s="23">
+      <c r="H34" s="9">
         <v>3</v>
       </c>
-      <c r="I34" s="24">
-        <v>0</v>
-      </c>
-      <c r="J34" s="24">
-        <v>0</v>
-      </c>
-      <c r="K34" s="30">
-        <v>0</v>
-      </c>
-      <c r="L34" s="24">
-        <v>0</v>
-      </c>
-      <c r="M34" s="24">
-        <v>0</v>
-      </c>
-      <c r="N34" s="24">
-        <v>0</v>
-      </c>
-      <c r="O34" s="24">
-        <v>0</v>
-      </c>
-      <c r="P34" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="25">
+      <c r="I34" s="10">
+        <v>0</v>
+      </c>
+      <c r="J34" s="10">
+        <v>0</v>
+      </c>
+      <c r="K34" s="16">
+        <v>0</v>
+      </c>
+      <c r="L34" s="10">
+        <v>0</v>
+      </c>
+      <c r="M34" s="10">
+        <v>0</v>
+      </c>
+      <c r="N34" s="10">
+        <v>0</v>
+      </c>
+      <c r="O34" s="10">
+        <v>0</v>
+      </c>
+      <c r="P34" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="11">
         <v>0</v>
       </c>
       <c r="T34" t="s">
@@ -3960,49 +3734,49 @@
       </c>
     </row>
     <row r="35" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="54"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="45" t="s">
+      <c r="A35" s="46"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="55" t="s">
+      <c r="E35" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F35" s="48">
-        <v>0</v>
-      </c>
-      <c r="G35" s="23">
+      <c r="F35" s="24">
+        <v>0</v>
+      </c>
+      <c r="G35" s="9">
         <v>8</v>
       </c>
-      <c r="H35" s="23">
+      <c r="H35" s="9">
         <v>55</v>
       </c>
-      <c r="I35" s="24">
-        <v>0</v>
-      </c>
-      <c r="J35" s="24">
-        <v>0</v>
-      </c>
-      <c r="K35" s="30">
-        <v>0</v>
-      </c>
-      <c r="L35" s="24">
-        <v>0</v>
-      </c>
-      <c r="M35" s="24">
-        <v>0</v>
-      </c>
-      <c r="N35" s="24">
-        <v>0</v>
-      </c>
-      <c r="O35" s="24">
-        <v>0</v>
-      </c>
-      <c r="P35" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="25">
+      <c r="I35" s="10">
+        <v>0</v>
+      </c>
+      <c r="J35" s="10">
+        <v>0</v>
+      </c>
+      <c r="K35" s="16">
+        <v>0</v>
+      </c>
+      <c r="L35" s="10">
+        <v>0</v>
+      </c>
+      <c r="M35" s="10">
+        <v>0</v>
+      </c>
+      <c r="N35" s="10">
+        <v>0</v>
+      </c>
+      <c r="O35" s="10">
+        <v>0</v>
+      </c>
+      <c r="P35" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="11">
         <v>0</v>
       </c>
       <c r="T35" t="s">
@@ -4013,47 +3787,47 @@
       </c>
     </row>
     <row r="36" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="54"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="55" t="s">
+      <c r="A36" s="46"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F36" s="48">
-        <v>0</v>
-      </c>
-      <c r="G36" s="23">
+      <c r="F36" s="24">
+        <v>0</v>
+      </c>
+      <c r="G36" s="9">
         <v>69</v>
       </c>
-      <c r="H36" s="23">
+      <c r="H36" s="9">
         <v>513</v>
       </c>
-      <c r="I36" s="24">
+      <c r="I36" s="10">
         <v>12.5833333333333</v>
       </c>
-      <c r="J36" s="24">
+      <c r="J36" s="10">
         <v>57.2083333333333</v>
       </c>
-      <c r="K36" s="30">
-        <v>0</v>
-      </c>
-      <c r="L36" s="24">
-        <v>0</v>
-      </c>
-      <c r="M36" s="24">
+      <c r="K36" s="16">
+        <v>0</v>
+      </c>
+      <c r="L36" s="10">
+        <v>0</v>
+      </c>
+      <c r="M36" s="10">
         <v>1.94931773879142</v>
       </c>
-      <c r="N36" s="24">
+      <c r="N36" s="10">
         <v>29.402209226770601</v>
       </c>
-      <c r="O36" s="24">
+      <c r="O36" s="10">
         <v>7.7972709551656898</v>
       </c>
-      <c r="P36" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="25">
+      <c r="P36" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="11">
         <v>72.368421052631604</v>
       </c>
       <c r="T36" t="s">
@@ -4064,49 +3838,49 @@
       </c>
     </row>
     <row r="37" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="54"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="45" t="s">
+      <c r="A37" s="46"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="55" t="s">
+      <c r="E37" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F37" s="48">
-        <v>0</v>
-      </c>
-      <c r="G37" s="23">
+      <c r="F37" s="24">
+        <v>0</v>
+      </c>
+      <c r="G37" s="9">
         <v>10</v>
       </c>
-      <c r="H37" s="23">
+      <c r="H37" s="9">
         <v>86</v>
       </c>
-      <c r="I37" s="24">
+      <c r="I37" s="10">
         <v>5</v>
       </c>
-      <c r="J37" s="24">
+      <c r="J37" s="10">
         <v>20</v>
       </c>
-      <c r="K37" s="30">
-        <v>0</v>
-      </c>
-      <c r="L37" s="24">
-        <v>0</v>
-      </c>
-      <c r="M37" s="24">
-        <v>0</v>
-      </c>
-      <c r="N37" s="24">
+      <c r="K37" s="16">
+        <v>0</v>
+      </c>
+      <c r="L37" s="10">
+        <v>0</v>
+      </c>
+      <c r="M37" s="10">
+        <v>0</v>
+      </c>
+      <c r="N37" s="10">
         <v>11.6279069767442</v>
       </c>
-      <c r="O37" s="24">
-        <v>0</v>
-      </c>
-      <c r="P37" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="25">
+      <c r="O37" s="10">
+        <v>0</v>
+      </c>
+      <c r="P37" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="11">
         <v>220.93023255814001</v>
       </c>
       <c r="T37" t="s">
@@ -4117,47 +3891,47 @@
       </c>
     </row>
     <row r="38" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="54"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="55" t="s">
+      <c r="A38" s="46"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="48">
-        <v>0</v>
-      </c>
-      <c r="G38" s="23">
+      <c r="F38" s="24">
+        <v>0</v>
+      </c>
+      <c r="G38" s="9">
         <v>9</v>
       </c>
-      <c r="H38" s="23">
+      <c r="H38" s="9">
         <v>41</v>
       </c>
-      <c r="I38" s="24">
+      <c r="I38" s="10">
         <v>5</v>
       </c>
-      <c r="J38" s="24">
+      <c r="J38" s="10">
         <v>45</v>
       </c>
-      <c r="K38" s="30">
-        <v>0</v>
-      </c>
-      <c r="L38" s="24">
-        <v>0</v>
-      </c>
-      <c r="M38" s="24">
-        <v>0</v>
-      </c>
-      <c r="N38" s="24">
-        <v>0</v>
-      </c>
-      <c r="O38" s="24">
-        <v>0</v>
-      </c>
-      <c r="P38" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="25">
+      <c r="K38" s="16">
+        <v>0</v>
+      </c>
+      <c r="L38" s="10">
+        <v>0</v>
+      </c>
+      <c r="M38" s="10">
+        <v>0</v>
+      </c>
+      <c r="N38" s="10">
+        <v>0</v>
+      </c>
+      <c r="O38" s="10">
+        <v>0</v>
+      </c>
+      <c r="P38" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="11">
         <v>1097.5609756097599</v>
       </c>
       <c r="T38" t="s">
@@ -4168,51 +3942,51 @@
       </c>
     </row>
     <row r="39" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="56"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="58" t="s">
+      <c r="A39" s="47"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="58" t="s">
+      <c r="D39" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="59" t="s">
+      <c r="E39" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="F39" s="64">
-        <v>0</v>
-      </c>
-      <c r="G39" s="26">
+      <c r="F39" s="35">
+        <v>0</v>
+      </c>
+      <c r="G39" s="12">
         <v>46</v>
       </c>
-      <c r="H39" s="26">
+      <c r="H39" s="12">
         <v>283</v>
       </c>
-      <c r="I39" s="27">
+      <c r="I39" s="13">
         <v>19.841876750700301</v>
       </c>
-      <c r="J39" s="27">
+      <c r="J39" s="13">
         <v>21.556162464985999</v>
       </c>
-      <c r="K39" s="31">
+      <c r="K39" s="17">
         <v>2.1739130434782601E-2</v>
       </c>
-      <c r="L39" s="27">
+      <c r="L39" s="13">
         <v>3.5335689045936398</v>
       </c>
-      <c r="M39" s="27">
+      <c r="M39" s="13">
         <v>3.5335689045936398</v>
       </c>
-      <c r="N39" s="27">
+      <c r="N39" s="13">
         <v>8.3291267036850094</v>
       </c>
-      <c r="O39" s="27">
-        <v>0</v>
-      </c>
-      <c r="P39" s="27">
+      <c r="O39" s="13">
+        <v>0</v>
+      </c>
+      <c r="P39" s="13">
         <v>24.655798715245801</v>
       </c>
-      <c r="Q39" s="28">
+      <c r="Q39" s="14">
         <v>36.118122160524997</v>
       </c>
       <c r="T39" t="s">
@@ -4224,16 +3998,11 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="G1:J2"/>
+    <mergeCell ref="K2:L2"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="A29:A39"/>
     <mergeCell ref="B29:B39"/>
@@ -4250,19 +4019,24 @@
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="C22:C23"/>
-    <mergeCell ref="K1:Q1"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="G1:J2"/>
-    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D27:D28"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:Q39">
-    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G39">
-    <cfRule type="top10" dxfId="23" priority="347" rank="1"/>
+    <cfRule type="top10" dxfId="24" priority="347" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L39">
     <cfRule type="dataBar" priority="349">
@@ -4277,7 +4051,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="top10" dxfId="22" priority="350" rank="1"/>
+    <cfRule type="top10" dxfId="23" priority="350" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M39">
     <cfRule type="dataBar" priority="353">
@@ -4292,7 +4066,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="top10" dxfId="21" priority="354" rank="1"/>
+    <cfRule type="top10" dxfId="22" priority="354" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N39">
     <cfRule type="dataBar" priority="357">
@@ -4307,7 +4081,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="top10" dxfId="20" priority="358" rank="1"/>
+    <cfRule type="top10" dxfId="21" priority="358" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:O39">
     <cfRule type="dataBar" priority="361">
@@ -4322,7 +4096,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="top10" dxfId="19" priority="362" rank="1"/>
+    <cfRule type="top10" dxfId="20" priority="362" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P39">
     <cfRule type="dataBar" priority="365">
@@ -4337,7 +4111,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="top10" dxfId="18" priority="366" rank="1"/>
+    <cfRule type="top10" dxfId="19" priority="366" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:Q39">
     <cfRule type="dataBar" priority="369">
@@ -4352,16 +4126,16 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="top10" dxfId="17" priority="370" rank="1"/>
+    <cfRule type="top10" dxfId="18" priority="370" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H39">
-    <cfRule type="top10" dxfId="16" priority="373" rank="1"/>
+    <cfRule type="top10" dxfId="17" priority="373" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I39">
-    <cfRule type="top10" dxfId="15" priority="375" rank="1"/>
+    <cfRule type="top10" dxfId="16" priority="375" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J39">
-    <cfRule type="top10" dxfId="14" priority="377" rank="1"/>
+    <cfRule type="top10" dxfId="15" priority="377" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K39">
     <cfRule type="dataBar" priority="379">
@@ -4376,10 +4150,10 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="top10" dxfId="13" priority="380" rank="1"/>
+    <cfRule type="top10" dxfId="14" priority="380" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T4:T39">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4472,11 +4246,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="X26" sqref="X26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4497,103 +4271,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="10" t="s">
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="9"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="53"/>
     </row>
     <row r="2" spans="1:21" ht="87" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="17" t="s">
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="18" t="s">
+      <c r="L2" s="60"/>
+      <c r="M2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="Q2" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="3" customFormat="1" ht="87" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="33" t="s">
+      <c r="A3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="38"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="55"/>
       <c r="T3" s="2" t="s">
         <v>53</v>
       </c>
@@ -4602,55 +4376,55 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="66">
-        <v>0</v>
-      </c>
-      <c r="G4" s="20">
+      <c r="F4" s="36">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
         <v>22</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="6">
         <v>494</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="7">
         <v>6.9381947204377497</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="7">
         <v>21.258246445033699</v>
       </c>
-      <c r="K4" s="29">
-        <v>0</v>
-      </c>
-      <c r="L4" s="21">
-        <v>0</v>
-      </c>
-      <c r="M4" s="21">
+      <c r="K4" s="15">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
         <v>4.3184885290148403</v>
       </c>
-      <c r="N4" s="21">
+      <c r="N4" s="7">
         <v>29.254686812982602</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4" s="7">
         <v>7.4354207005808801</v>
       </c>
-      <c r="P4" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="22">
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="8">
         <v>2.0242914979757098</v>
       </c>
       <c r="T4" t="s">
@@ -4661,49 +4435,49 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="45" t="s">
+      <c r="A5" s="77"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="67">
-        <v>0</v>
-      </c>
-      <c r="G5" s="23">
+      <c r="F5" s="37">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
         <v>40</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="9">
         <v>2029</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="10">
         <v>35.149431542188502</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="10">
         <v>320.79604648425902</v>
       </c>
-      <c r="K5" s="30">
-        <v>0</v>
-      </c>
-      <c r="L5" s="24">
-        <v>0</v>
-      </c>
-      <c r="M5" s="24">
+      <c r="K5" s="16">
+        <v>0</v>
+      </c>
+      <c r="L5" s="10">
+        <v>0</v>
+      </c>
+      <c r="M5" s="10">
         <v>0.49285362247412501</v>
       </c>
-      <c r="N5" s="24">
+      <c r="N5" s="10">
         <v>62.960533311051698</v>
       </c>
-      <c r="O5" s="24">
+      <c r="O5" s="10">
         <v>60.4809221600798</v>
       </c>
-      <c r="P5" s="24">
+      <c r="P5" s="10">
         <v>6.8999507146377503</v>
       </c>
-      <c r="Q5" s="25">
+      <c r="Q5" s="11">
         <v>27.2712337769016</v>
       </c>
       <c r="T5" t="s">
@@ -4714,47 +4488,47 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="55" t="s">
+      <c r="A6" s="77"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="67">
-        <v>0</v>
-      </c>
-      <c r="G6" s="23">
+      <c r="F6" s="37">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
         <v>4</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="9">
         <v>73</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="10">
         <v>1.5333333333333301</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="10">
         <v>2.1111111111111098</v>
       </c>
-      <c r="K6" s="30">
-        <v>0</v>
-      </c>
-      <c r="L6" s="24">
-        <v>0</v>
-      </c>
-      <c r="M6" s="24">
+      <c r="K6" s="16">
+        <v>0</v>
+      </c>
+      <c r="L6" s="10">
+        <v>0</v>
+      </c>
+      <c r="M6" s="10">
         <v>11.872146118721499</v>
       </c>
-      <c r="N6" s="24">
+      <c r="N6" s="10">
         <v>3.3485540334855401</v>
       </c>
-      <c r="O6" s="24">
-        <v>0</v>
-      </c>
-      <c r="P6" s="24">
+      <c r="O6" s="10">
+        <v>0</v>
+      </c>
+      <c r="P6" s="10">
         <v>13.698630136986299</v>
       </c>
-      <c r="Q6" s="25">
+      <c r="Q6" s="11">
         <v>0</v>
       </c>
       <c r="T6" t="s">
@@ -4765,51 +4539,51 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="45" t="s">
+      <c r="A7" s="77"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="67">
-        <v>0</v>
-      </c>
-      <c r="G7" s="23">
+      <c r="F7" s="37">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
         <v>93</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="9">
         <v>3821</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="10">
         <v>96.949067202850898</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="10">
         <v>1448.29586327282</v>
       </c>
-      <c r="K7" s="30">
+      <c r="K7" s="16">
         <v>0.31333483545094198</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="10">
         <v>7.6263124043280799</v>
       </c>
-      <c r="M7" s="24">
+      <c r="M7" s="10">
         <v>30.288525553611901</v>
       </c>
-      <c r="N7" s="24">
+      <c r="N7" s="10">
         <v>103.157350404707</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="10">
         <v>128.358962581843</v>
       </c>
-      <c r="P7" s="24">
+      <c r="P7" s="10">
         <v>40.706559090421102</v>
       </c>
-      <c r="Q7" s="25">
+      <c r="Q7" s="11">
         <v>68.898108670354105</v>
       </c>
       <c r="T7" t="s">
@@ -4820,47 +4594,47 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="55" t="s">
+      <c r="A8" s="77"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="67">
+      <c r="F8" s="37">
         <v>1</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="9">
         <v>1</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="9">
         <v>1</v>
       </c>
-      <c r="I8" s="24">
-        <v>0</v>
-      </c>
-      <c r="J8" s="24">
-        <v>0</v>
-      </c>
-      <c r="K8" s="30">
-        <v>0</v>
-      </c>
-      <c r="L8" s="24">
-        <v>0</v>
-      </c>
-      <c r="M8" s="24">
-        <v>0</v>
-      </c>
-      <c r="N8" s="24">
-        <v>0</v>
-      </c>
-      <c r="O8" s="24">
-        <v>0</v>
-      </c>
-      <c r="P8" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="25">
+      <c r="I8" s="10">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0</v>
+      </c>
+      <c r="K8" s="16">
+        <v>0</v>
+      </c>
+      <c r="L8" s="10">
+        <v>0</v>
+      </c>
+      <c r="M8" s="10">
+        <v>0</v>
+      </c>
+      <c r="N8" s="10">
+        <v>0</v>
+      </c>
+      <c r="O8" s="10">
+        <v>0</v>
+      </c>
+      <c r="P8" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="11">
         <v>0</v>
       </c>
       <c r="T8" t="s">
@@ -4871,49 +4645,49 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="44" t="s">
+      <c r="A9" s="77"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="67">
-        <v>0</v>
-      </c>
-      <c r="G9" s="23">
+      <c r="F9" s="37">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
         <v>49</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="9">
         <v>609</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="10">
         <v>11.495152814263299</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="10">
         <v>101.635654331477</v>
       </c>
-      <c r="K9" s="30">
+      <c r="K9" s="16">
         <v>4.6538439706141597E-2</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="10">
         <v>3.7444721602642601</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="10">
         <v>22.408751764468601</v>
       </c>
-      <c r="N9" s="24">
+      <c r="N9" s="10">
         <v>40.224865247264702</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9" s="10">
         <v>84.936391030527801</v>
       </c>
-      <c r="P9" s="24">
+      <c r="P9" s="10">
         <v>8.3561923917122307</v>
       </c>
-      <c r="Q9" s="25">
+      <c r="Q9" s="11">
         <v>7.2187433851996303</v>
       </c>
       <c r="T9" t="s">
@@ -4924,49 +4698,49 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="45" t="s">
+      <c r="A10" s="77"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="67">
-        <v>0</v>
-      </c>
-      <c r="G10" s="23">
+      <c r="F10" s="37">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
         <v>39</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="9">
         <v>685</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="10">
         <v>10.1090415935906</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="10">
         <v>68.348767935130994</v>
       </c>
-      <c r="K10" s="30">
+      <c r="K10" s="16">
         <v>8.0721747388414096E-3</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L10" s="10">
         <v>0.45958367126250299</v>
       </c>
-      <c r="M10" s="24">
+      <c r="M10" s="10">
         <v>13.3275707516968</v>
       </c>
-      <c r="N10" s="24">
+      <c r="N10" s="10">
         <v>28.610180662477401</v>
       </c>
-      <c r="O10" s="24">
+      <c r="O10" s="10">
         <v>39.830109665881302</v>
       </c>
-      <c r="P10" s="24">
+      <c r="P10" s="10">
         <v>8.2903010678654194</v>
       </c>
-      <c r="Q10" s="25">
+      <c r="Q10" s="11">
         <v>9.2614774437816099</v>
       </c>
       <c r="T10" t="s">
@@ -4977,47 +4751,47 @@
       </c>
     </row>
     <row r="11" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="55" t="s">
+      <c r="A11" s="77"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="67">
-        <v>0</v>
-      </c>
-      <c r="G11" s="23">
+      <c r="F11" s="37">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
         <v>16</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="9">
         <v>239</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="10">
         <v>3.8719654817903599</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="10">
         <v>32.679984288111399</v>
       </c>
-      <c r="K11" s="30">
+      <c r="K11" s="16">
         <v>9.3395058964979197E-2</v>
       </c>
-      <c r="L11" s="24">
+      <c r="L11" s="10">
         <v>6.2523888846847999</v>
       </c>
-      <c r="M11" s="24">
+      <c r="M11" s="10">
         <v>52.264552594876299</v>
       </c>
-      <c r="N11" s="24">
+      <c r="N11" s="10">
         <v>5.4982415793591404</v>
       </c>
-      <c r="O11" s="24">
+      <c r="O11" s="10">
         <v>69.823829370582104</v>
       </c>
-      <c r="P11" s="24">
+      <c r="P11" s="10">
         <v>2.8973235040180598</v>
       </c>
-      <c r="Q11" s="25">
+      <c r="Q11" s="11">
         <v>0</v>
       </c>
       <c r="T11" t="s">
@@ -5028,49 +4802,49 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="44" t="s">
+      <c r="A12" s="77"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="67">
-        <v>0</v>
-      </c>
-      <c r="G12" s="23">
+      <c r="F12" s="37">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
         <v>10</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="9">
         <v>357</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="10">
         <v>5.5747729075048698</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="10">
         <v>48.0397301724621</v>
       </c>
-      <c r="K12" s="30">
+      <c r="K12" s="16">
         <v>7.7034099920697902E-2</v>
       </c>
-      <c r="L12" s="24">
+      <c r="L12" s="10">
         <v>2.1578179249495202</v>
       </c>
-      <c r="M12" s="24">
-        <v>0</v>
-      </c>
-      <c r="N12" s="24">
+      <c r="M12" s="10">
+        <v>0</v>
+      </c>
+      <c r="N12" s="10">
         <v>6.7976685623744402</v>
       </c>
-      <c r="O12" s="24">
+      <c r="O12" s="10">
         <v>125.609584023774</v>
       </c>
-      <c r="P12" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="25">
+      <c r="P12" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="11">
         <v>0</v>
       </c>
       <c r="T12" t="s">
@@ -5081,51 +4855,51 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="45" t="s">
+      <c r="A13" s="77"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="55" t="s">
+      <c r="E13" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="67">
-        <v>0</v>
-      </c>
-      <c r="G13" s="23">
+      <c r="F13" s="37">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
         <v>6</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="9">
         <v>133</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="10">
         <v>3.5464646464646501</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="10">
         <v>129.36868686868701</v>
       </c>
-      <c r="K13" s="30">
-        <v>0</v>
-      </c>
-      <c r="L13" s="24">
-        <v>0</v>
-      </c>
-      <c r="M13" s="24">
-        <v>0</v>
-      </c>
-      <c r="N13" s="24">
+      <c r="K13" s="16">
+        <v>0</v>
+      </c>
+      <c r="L13" s="10">
+        <v>0</v>
+      </c>
+      <c r="M13" s="10">
+        <v>0</v>
+      </c>
+      <c r="N13" s="10">
         <v>15.721120984278899</v>
       </c>
-      <c r="O13" s="24">
+      <c r="O13" s="10">
         <v>917.29323308270705</v>
       </c>
-      <c r="P13" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="25">
+      <c r="P13" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="11">
         <v>39.682539682539698</v>
       </c>
       <c r="T13" t="s">
@@ -5136,49 +4910,49 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="45" t="s">
+      <c r="A14" s="77"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="55" t="s">
+      <c r="E14" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="67">
-        <v>0</v>
-      </c>
-      <c r="G14" s="23">
+      <c r="F14" s="37">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
         <v>6</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="9">
         <v>153</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="10">
         <v>1.9494588744588699</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="10">
         <v>5.5827922077922096</v>
       </c>
-      <c r="K14" s="30">
-        <v>0</v>
-      </c>
-      <c r="L14" s="24">
-        <v>0</v>
-      </c>
-      <c r="M14" s="24">
-        <v>0</v>
-      </c>
-      <c r="N14" s="24">
+      <c r="K14" s="16">
+        <v>0</v>
+      </c>
+      <c r="L14" s="10">
+        <v>0</v>
+      </c>
+      <c r="M14" s="10">
+        <v>0</v>
+      </c>
+      <c r="N14" s="10">
         <v>3.8090993973346898</v>
       </c>
-      <c r="O14" s="24">
+      <c r="O14" s="10">
         <v>3.9941902687000699</v>
       </c>
-      <c r="P14" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="25">
+      <c r="P14" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="11">
         <v>28.685548293391399</v>
       </c>
       <c r="T14" t="s">
@@ -5189,47 +4963,47 @@
       </c>
     </row>
     <row r="15" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="55" t="s">
+      <c r="A15" s="77"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="67">
+      <c r="F15" s="37">
         <v>1</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="9">
         <v>2</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="9">
         <v>85</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="10">
         <v>0.25974025974025999</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J15" s="10">
         <v>0.25974025974025999</v>
       </c>
-      <c r="K15" s="30">
-        <v>0</v>
-      </c>
-      <c r="L15" s="24">
-        <v>0</v>
-      </c>
-      <c r="M15" s="24">
-        <v>0</v>
-      </c>
-      <c r="N15" s="24">
+      <c r="K15" s="16">
+        <v>0</v>
+      </c>
+      <c r="L15" s="10">
+        <v>0</v>
+      </c>
+      <c r="M15" s="10">
+        <v>0</v>
+      </c>
+      <c r="N15" s="10">
         <v>3.05576776165011</v>
       </c>
-      <c r="O15" s="24">
-        <v>0</v>
-      </c>
-      <c r="P15" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="25">
+      <c r="O15" s="10">
+        <v>0</v>
+      </c>
+      <c r="P15" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="11">
         <v>0</v>
       </c>
       <c r="T15" t="s">
@@ -5240,49 +5014,49 @@
       </c>
     </row>
     <row r="16" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="44" t="s">
+      <c r="A16" s="77"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="67">
-        <v>0</v>
-      </c>
-      <c r="G16" s="23">
+      <c r="F16" s="37">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
         <v>4</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="9">
         <v>104</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="10">
         <v>4.62337662337662</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="10">
         <v>6.62337662337662</v>
       </c>
-      <c r="K16" s="30">
-        <v>0</v>
-      </c>
-      <c r="L16" s="24">
-        <v>0</v>
-      </c>
-      <c r="M16" s="24">
+      <c r="K16" s="16">
+        <v>0</v>
+      </c>
+      <c r="L16" s="10">
+        <v>0</v>
+      </c>
+      <c r="M16" s="10">
         <v>19.230769230769202</v>
       </c>
-      <c r="N16" s="24">
+      <c r="N16" s="10">
         <v>44.455544455544498</v>
       </c>
-      <c r="O16" s="24">
-        <v>0</v>
-      </c>
-      <c r="P16" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="25">
+      <c r="O16" s="10">
+        <v>0</v>
+      </c>
+      <c r="P16" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="11">
         <v>0</v>
       </c>
       <c r="T16" t="s">
@@ -5293,51 +5067,51 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="45" t="s">
+      <c r="A17" s="77"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="67">
-        <v>0</v>
-      </c>
-      <c r="G17" s="23">
+      <c r="F17" s="37">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9">
         <v>40</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="9">
         <v>2123</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="10">
         <v>41.349454821362102</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="10">
         <v>974.87420843178802</v>
       </c>
-      <c r="K17" s="30">
+      <c r="K17" s="16">
         <v>0.51824239304507003</v>
       </c>
-      <c r="L17" s="24">
+      <c r="L17" s="10">
         <v>9.7643408958091307</v>
       </c>
-      <c r="M17" s="24">
-        <v>0</v>
-      </c>
-      <c r="N17" s="24">
+      <c r="M17" s="10">
+        <v>0</v>
+      </c>
+      <c r="N17" s="10">
         <v>35.534411685821297</v>
       </c>
-      <c r="O17" s="24">
+      <c r="O17" s="10">
         <v>254.804292310752</v>
       </c>
-      <c r="P17" s="24">
+      <c r="P17" s="10">
         <v>108.274167100832</v>
       </c>
-      <c r="Q17" s="25">
+      <c r="Q17" s="11">
         <v>50.819306344886897</v>
       </c>
       <c r="T17" t="s">
@@ -5348,49 +5122,49 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="44" t="s">
+      <c r="A18" s="77"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="55" t="s">
+      <c r="E18" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="67">
-        <v>0</v>
-      </c>
-      <c r="G18" s="23">
+      <c r="F18" s="37">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9">
         <v>23</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="9">
         <v>504</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="10">
         <v>8.6505451786378593</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J18" s="10">
         <v>161.12579156821201</v>
       </c>
-      <c r="K18" s="30">
+      <c r="K18" s="16">
         <v>0.142187142530313</v>
       </c>
-      <c r="L18" s="24">
+      <c r="L18" s="10">
         <v>6.4886989646769999</v>
       </c>
-      <c r="M18" s="24">
-        <v>0</v>
-      </c>
-      <c r="N18" s="24">
+      <c r="M18" s="10">
+        <v>0</v>
+      </c>
+      <c r="N18" s="10">
         <v>58.651674585320102</v>
       </c>
-      <c r="O18" s="24">
+      <c r="O18" s="10">
         <v>8.0366813973698292</v>
       </c>
-      <c r="P18" s="24">
+      <c r="P18" s="10">
         <v>162.96417310502699</v>
       </c>
-      <c r="Q18" s="25">
+      <c r="Q18" s="11">
         <v>83.552802836914907</v>
       </c>
       <c r="T18" t="s">
@@ -5401,49 +5175,49 @@
       </c>
     </row>
     <row r="19" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
+      <c r="A19" s="77"/>
       <c r="B19" s="74"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="44" t="s">
+      <c r="C19" s="43"/>
+      <c r="D19" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="55" t="s">
+      <c r="E19" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="67">
+      <c r="F19" s="37">
         <v>1</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="9">
         <v>2</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="9">
         <v>64</v>
       </c>
-      <c r="I19" s="24">
-        <v>0</v>
-      </c>
-      <c r="J19" s="24">
-        <v>0</v>
-      </c>
-      <c r="K19" s="30">
-        <v>0</v>
-      </c>
-      <c r="L19" s="24">
-        <v>0</v>
-      </c>
-      <c r="M19" s="24">
-        <v>0</v>
-      </c>
-      <c r="N19" s="24">
-        <v>0</v>
-      </c>
-      <c r="O19" s="24">
-        <v>0</v>
-      </c>
-      <c r="P19" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="25">
+      <c r="I19" s="10">
+        <v>0</v>
+      </c>
+      <c r="J19" s="10">
+        <v>0</v>
+      </c>
+      <c r="K19" s="16">
+        <v>0</v>
+      </c>
+      <c r="L19" s="10">
+        <v>0</v>
+      </c>
+      <c r="M19" s="10">
+        <v>0</v>
+      </c>
+      <c r="N19" s="10">
+        <v>0</v>
+      </c>
+      <c r="O19" s="10">
+        <v>0</v>
+      </c>
+      <c r="P19" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="11">
         <v>0</v>
       </c>
       <c r="T19" t="s">
@@ -5454,53 +5228,53 @@
       </c>
     </row>
     <row r="20" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
+      <c r="A20" s="77"/>
       <c r="B20" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="55" t="s">
+      <c r="E20" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="67">
-        <v>0</v>
-      </c>
-      <c r="G20" s="23">
+      <c r="F20" s="37">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
         <v>12</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="9">
         <v>85</v>
       </c>
-      <c r="I20" s="24">
+      <c r="I20" s="10">
         <v>1</v>
       </c>
-      <c r="J20" s="24">
+      <c r="J20" s="10">
         <v>1</v>
       </c>
-      <c r="K20" s="30">
-        <v>0</v>
-      </c>
-      <c r="L20" s="24">
-        <v>0</v>
-      </c>
-      <c r="M20" s="24">
-        <v>0</v>
-      </c>
-      <c r="N20" s="24">
-        <v>0</v>
-      </c>
-      <c r="O20" s="24">
-        <v>0</v>
-      </c>
-      <c r="P20" s="24">
+      <c r="K20" s="16">
+        <v>0</v>
+      </c>
+      <c r="L20" s="10">
+        <v>0</v>
+      </c>
+      <c r="M20" s="10">
+        <v>0</v>
+      </c>
+      <c r="N20" s="10">
+        <v>0</v>
+      </c>
+      <c r="O20" s="10">
+        <v>0</v>
+      </c>
+      <c r="P20" s="10">
         <v>11.764705882352899</v>
       </c>
-      <c r="Q20" s="25">
+      <c r="Q20" s="11">
         <v>0</v>
       </c>
       <c r="T20" t="s">
@@ -5511,51 +5285,51 @@
       </c>
     </row>
     <row r="21" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="45" t="s">
+      <c r="A21" s="77"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="44" t="s">
+      <c r="D21" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="55" t="s">
+      <c r="E21" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="67">
-        <v>0</v>
-      </c>
-      <c r="G21" s="23">
+      <c r="F21" s="37">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9">
         <v>39</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="9">
         <v>1566</v>
       </c>
-      <c r="I21" s="24">
+      <c r="I21" s="10">
         <v>12</v>
       </c>
-      <c r="J21" s="24">
+      <c r="J21" s="10">
         <v>130</v>
       </c>
-      <c r="K21" s="30">
-        <v>0</v>
-      </c>
-      <c r="L21" s="24">
-        <v>0</v>
-      </c>
-      <c r="M21" s="24">
-        <v>0</v>
-      </c>
-      <c r="N21" s="24">
+      <c r="K21" s="16">
+        <v>0</v>
+      </c>
+      <c r="L21" s="10">
+        <v>0</v>
+      </c>
+      <c r="M21" s="10">
+        <v>0</v>
+      </c>
+      <c r="N21" s="10">
         <v>1.2771392081736901</v>
       </c>
-      <c r="O21" s="24">
+      <c r="O21" s="10">
         <v>12.7713920817369</v>
       </c>
-      <c r="P21" s="24">
+      <c r="P21" s="10">
         <v>1.2771392081736901</v>
       </c>
-      <c r="Q21" s="25">
+      <c r="Q21" s="11">
         <v>67.688378033205595</v>
       </c>
       <c r="T21" t="s">
@@ -5566,49 +5340,49 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
+      <c r="A22" s="77"/>
       <c r="B22" s="74"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="44" t="s">
+      <c r="C22" s="43"/>
+      <c r="D22" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="55" t="s">
+      <c r="E22" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="67">
-        <v>0</v>
-      </c>
-      <c r="G22" s="23">
+      <c r="F22" s="37">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9">
         <v>15</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="9">
         <v>108</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I22" s="10">
         <v>1</v>
       </c>
-      <c r="J22" s="24">
+      <c r="J22" s="10">
         <v>4</v>
       </c>
-      <c r="K22" s="30">
-        <v>0</v>
-      </c>
-      <c r="L22" s="24">
-        <v>0</v>
-      </c>
-      <c r="M22" s="24">
+      <c r="K22" s="16">
+        <v>0</v>
+      </c>
+      <c r="L22" s="10">
+        <v>0</v>
+      </c>
+      <c r="M22" s="10">
         <v>37.037037037037003</v>
       </c>
-      <c r="N22" s="24">
-        <v>0</v>
-      </c>
-      <c r="O22" s="24">
-        <v>0</v>
-      </c>
-      <c r="P22" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="25">
+      <c r="N22" s="10">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10">
+        <v>0</v>
+      </c>
+      <c r="P22" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="11">
         <v>0</v>
       </c>
       <c r="T22" t="s">
@@ -5619,51 +5393,51 @@
       </c>
     </row>
     <row r="23" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="76" t="s">
+      <c r="A23" s="77"/>
+      <c r="B23" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="77"/>
-      <c r="D23" s="44" t="s">
+      <c r="C23" s="68"/>
+      <c r="D23" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="67">
-        <v>0</v>
-      </c>
-      <c r="G23" s="23">
+      <c r="F23" s="37">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9">
         <v>64</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="9">
         <v>1776</v>
       </c>
-      <c r="I23" s="24">
+      <c r="I23" s="10">
         <v>27.456426842585</v>
       </c>
-      <c r="J23" s="24">
+      <c r="J23" s="10">
         <v>1309.4271873549901</v>
       </c>
-      <c r="K23" s="30">
+      <c r="K23" s="16">
         <v>0.159582934008762</v>
       </c>
-      <c r="L23" s="24">
+      <c r="L23" s="10">
         <v>5.7507363606761199</v>
       </c>
-      <c r="M23" s="24">
+      <c r="M23" s="10">
         <v>84.528425497839095</v>
       </c>
-      <c r="N23" s="24">
-        <v>0</v>
-      </c>
-      <c r="O23" s="24">
+      <c r="N23" s="10">
+        <v>0</v>
+      </c>
+      <c r="O23" s="10">
         <v>294.85047067878401</v>
       </c>
-      <c r="P23" s="24">
+      <c r="P23" s="10">
         <v>143.778459165687</v>
       </c>
-      <c r="Q23" s="25">
+      <c r="Q23" s="11">
         <v>208.381991267166</v>
       </c>
       <c r="T23" t="s">
@@ -5674,49 +5448,49 @@
       </c>
     </row>
     <row r="24" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="58" t="s">
+      <c r="A24" s="78"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="59" t="s">
+      <c r="E24" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="68">
-        <v>0</v>
-      </c>
-      <c r="G24" s="26">
+      <c r="F24" s="38">
+        <v>0</v>
+      </c>
+      <c r="G24" s="12">
         <v>5</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24" s="12">
         <v>28</v>
       </c>
-      <c r="I24" s="27">
+      <c r="I24" s="13">
         <v>1.00212212486309</v>
       </c>
-      <c r="J24" s="27">
+      <c r="J24" s="13">
         <v>90.486240416210293</v>
       </c>
-      <c r="K24" s="31">
+      <c r="K24" s="17">
         <v>0.20049288061336301</v>
       </c>
-      <c r="L24" s="27">
+      <c r="L24" s="13">
         <v>35.802300109529</v>
       </c>
-      <c r="M24" s="27">
+      <c r="M24" s="13">
         <v>500</v>
       </c>
-      <c r="N24" s="27">
-        <v>0</v>
-      </c>
-      <c r="O24" s="27">
+      <c r="N24" s="13">
+        <v>0</v>
+      </c>
+      <c r="O24" s="13">
         <v>1513.82803943045</v>
       </c>
-      <c r="P24" s="27">
+      <c r="P24" s="13">
         <v>20.089285714285701</v>
       </c>
-      <c r="Q24" s="28">
+      <c r="Q24" s="14">
         <v>1161.9318181818201</v>
       </c>
       <c r="T24" t="s">
@@ -5727,49 +5501,53 @@
       </c>
     </row>
     <row r="25" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46" t="s">
+      <c r="A25" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="79" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="78" t="s">
+      <c r="E25" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="79">
-        <v>0</v>
-      </c>
-      <c r="G25" s="60">
+      <c r="F25" s="40">
+        <v>0</v>
+      </c>
+      <c r="G25" s="31">
         <v>16</v>
       </c>
-      <c r="H25" s="60">
+      <c r="H25" s="31">
         <v>208</v>
       </c>
-      <c r="I25" s="61">
+      <c r="I25" s="32">
         <v>10.226416720534401</v>
       </c>
-      <c r="J25" s="61">
+      <c r="J25" s="32">
         <v>379.54863176039601</v>
       </c>
-      <c r="K25" s="62">
-        <v>0</v>
-      </c>
-      <c r="L25" s="61">
-        <v>0</v>
-      </c>
-      <c r="M25" s="61">
-        <v>0</v>
-      </c>
-      <c r="N25" s="61">
+      <c r="K25" s="33">
+        <v>0</v>
+      </c>
+      <c r="L25" s="32">
+        <v>0</v>
+      </c>
+      <c r="M25" s="32">
+        <v>0</v>
+      </c>
+      <c r="N25" s="32">
         <v>4.8076923076923102</v>
       </c>
-      <c r="O25" s="61">
-        <v>0</v>
-      </c>
-      <c r="P25" s="61">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="80">
+      <c r="O25" s="32">
+        <v>0</v>
+      </c>
+      <c r="P25" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="41">
         <v>1819.94534500191</v>
       </c>
       <c r="T25" t="s">
@@ -5780,47 +5558,47 @@
       </c>
     </row>
     <row r="26" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="55" t="s">
+      <c r="A26" s="77"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="67">
-        <v>0</v>
-      </c>
-      <c r="G26" s="23">
+      <c r="F26" s="37">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9">
         <v>148</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="9">
         <v>865</v>
       </c>
-      <c r="I26" s="24">
+      <c r="I26" s="10">
         <v>42.607282913165299</v>
       </c>
-      <c r="J26" s="24">
+      <c r="J26" s="10">
         <v>289.34733893557399</v>
       </c>
-      <c r="K26" s="30">
+      <c r="K26" s="16">
         <v>0.18243243243243201</v>
       </c>
-      <c r="L26" s="24">
+      <c r="L26" s="10">
         <v>31.213872832369901</v>
       </c>
-      <c r="M26" s="24">
+      <c r="M26" s="10">
         <v>70.982658959537602</v>
       </c>
-      <c r="N26" s="24">
+      <c r="N26" s="10">
         <v>51.984585741811202</v>
       </c>
-      <c r="O26" s="24">
-        <v>0</v>
-      </c>
-      <c r="P26" s="24">
+      <c r="O26" s="10">
+        <v>0</v>
+      </c>
+      <c r="P26" s="10">
         <v>6.9364161849711001</v>
       </c>
-      <c r="Q26" s="25">
+      <c r="Q26" s="11">
         <v>173.38806042648301</v>
       </c>
       <c r="T26" t="s">
@@ -5831,47 +5609,47 @@
       </c>
     </row>
     <row r="27" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="55" t="s">
+      <c r="A27" s="77"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="67">
+      <c r="F27" s="37">
         <v>1</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27" s="9">
         <v>2</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="9">
         <v>2</v>
       </c>
-      <c r="I27" s="24">
-        <v>0</v>
-      </c>
-      <c r="J27" s="24">
-        <v>0</v>
-      </c>
-      <c r="K27" s="30">
-        <v>0</v>
-      </c>
-      <c r="L27" s="24">
-        <v>0</v>
-      </c>
-      <c r="M27" s="24">
-        <v>0</v>
-      </c>
-      <c r="N27" s="24">
-        <v>0</v>
-      </c>
-      <c r="O27" s="24">
-        <v>0</v>
-      </c>
-      <c r="P27" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="25">
+      <c r="I27" s="10">
+        <v>0</v>
+      </c>
+      <c r="J27" s="10">
+        <v>0</v>
+      </c>
+      <c r="K27" s="16">
+        <v>0</v>
+      </c>
+      <c r="L27" s="10">
+        <v>0</v>
+      </c>
+      <c r="M27" s="10">
+        <v>0</v>
+      </c>
+      <c r="N27" s="10">
+        <v>0</v>
+      </c>
+      <c r="O27" s="10">
+        <v>0</v>
+      </c>
+      <c r="P27" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="11">
         <v>0</v>
       </c>
       <c r="T27" t="s">
@@ -5882,51 +5660,51 @@
       </c>
     </row>
     <row r="28" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="45" t="s">
+      <c r="A28" s="77"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="45" t="s">
+      <c r="D28" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="55" t="s">
+      <c r="E28" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="67">
-        <v>0</v>
-      </c>
-      <c r="G28" s="23">
+      <c r="F28" s="37">
+        <v>0</v>
+      </c>
+      <c r="G28" s="9">
         <v>4</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="9">
         <v>17</v>
       </c>
-      <c r="I28" s="24">
-        <v>0</v>
-      </c>
-      <c r="J28" s="24">
-        <v>0</v>
-      </c>
-      <c r="K28" s="30">
-        <v>0</v>
-      </c>
-      <c r="L28" s="24">
-        <v>0</v>
-      </c>
-      <c r="M28" s="24">
-        <v>0</v>
-      </c>
-      <c r="N28" s="24">
-        <v>0</v>
-      </c>
-      <c r="O28" s="24">
-        <v>0</v>
-      </c>
-      <c r="P28" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="25">
+      <c r="I28" s="10">
+        <v>0</v>
+      </c>
+      <c r="J28" s="10">
+        <v>0</v>
+      </c>
+      <c r="K28" s="16">
+        <v>0</v>
+      </c>
+      <c r="L28" s="10">
+        <v>0</v>
+      </c>
+      <c r="M28" s="10">
+        <v>0</v>
+      </c>
+      <c r="N28" s="10">
+        <v>0</v>
+      </c>
+      <c r="O28" s="10">
+        <v>0</v>
+      </c>
+      <c r="P28" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="11">
         <v>0</v>
       </c>
       <c r="T28" t="s">
@@ -5937,47 +5715,47 @@
       </c>
     </row>
     <row r="29" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="55" t="s">
+      <c r="A29" s="77"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="67">
-        <v>0</v>
-      </c>
-      <c r="G29" s="23">
+      <c r="F29" s="37">
+        <v>0</v>
+      </c>
+      <c r="G29" s="9">
         <v>14</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="9">
         <v>63</v>
       </c>
-      <c r="I29" s="24">
+      <c r="I29" s="10">
         <v>1.8</v>
       </c>
-      <c r="J29" s="24">
+      <c r="J29" s="10">
         <v>20.8</v>
       </c>
-      <c r="K29" s="30">
-        <v>0</v>
-      </c>
-      <c r="L29" s="24">
-        <v>0</v>
-      </c>
-      <c r="M29" s="24">
-        <v>0</v>
-      </c>
-      <c r="N29" s="24">
-        <v>0</v>
-      </c>
-      <c r="O29" s="24">
-        <v>0</v>
-      </c>
-      <c r="P29" s="24">
+      <c r="K29" s="16">
+        <v>0</v>
+      </c>
+      <c r="L29" s="10">
+        <v>0</v>
+      </c>
+      <c r="M29" s="10">
+        <v>0</v>
+      </c>
+      <c r="N29" s="10">
+        <v>0</v>
+      </c>
+      <c r="O29" s="10">
+        <v>0</v>
+      </c>
+      <c r="P29" s="10">
         <v>317.46031746031701</v>
       </c>
-      <c r="Q29" s="25">
+      <c r="Q29" s="11">
         <v>12.698412698412699</v>
       </c>
       <c r="T29" t="s">
@@ -5988,51 +5766,51 @@
       </c>
     </row>
     <row r="30" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="45" t="s">
+      <c r="A30" s="77"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="44" t="s">
+      <c r="D30" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="55" t="s">
+      <c r="E30" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="67">
+      <c r="F30" s="37">
         <v>1</v>
       </c>
-      <c r="G30" s="23">
+      <c r="G30" s="9">
         <v>2</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H30" s="9">
         <v>7</v>
       </c>
-      <c r="I30" s="24">
-        <v>0</v>
-      </c>
-      <c r="J30" s="24">
-        <v>0</v>
-      </c>
-      <c r="K30" s="30">
-        <v>0</v>
-      </c>
-      <c r="L30" s="24">
-        <v>0</v>
-      </c>
-      <c r="M30" s="24">
-        <v>0</v>
-      </c>
-      <c r="N30" s="24">
-        <v>0</v>
-      </c>
-      <c r="O30" s="24">
-        <v>0</v>
-      </c>
-      <c r="P30" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="25">
+      <c r="I30" s="10">
+        <v>0</v>
+      </c>
+      <c r="J30" s="10">
+        <v>0</v>
+      </c>
+      <c r="K30" s="16">
+        <v>0</v>
+      </c>
+      <c r="L30" s="10">
+        <v>0</v>
+      </c>
+      <c r="M30" s="10">
+        <v>0</v>
+      </c>
+      <c r="N30" s="10">
+        <v>0</v>
+      </c>
+      <c r="O30" s="10">
+        <v>0</v>
+      </c>
+      <c r="P30" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="11">
         <v>0</v>
       </c>
       <c r="T30" t="s">
@@ -6043,49 +5821,49 @@
       </c>
     </row>
     <row r="31" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="45" t="s">
+      <c r="A31" s="77"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="55" t="s">
+      <c r="E31" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="67">
-        <v>0</v>
-      </c>
-      <c r="G31" s="23">
+      <c r="F31" s="37">
+        <v>0</v>
+      </c>
+      <c r="G31" s="9">
         <v>11</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="9">
         <v>54</v>
       </c>
-      <c r="I31" s="24">
+      <c r="I31" s="10">
         <v>12.128205128205099</v>
       </c>
-      <c r="J31" s="24">
+      <c r="J31" s="10">
         <v>30.256410256410302</v>
       </c>
-      <c r="K31" s="30">
+      <c r="K31" s="16">
         <v>0.45454545454545497</v>
       </c>
-      <c r="L31" s="24">
+      <c r="L31" s="10">
         <v>92.592592592592595</v>
       </c>
-      <c r="M31" s="24">
+      <c r="M31" s="10">
         <v>18.518518518518501</v>
       </c>
-      <c r="N31" s="24">
+      <c r="N31" s="10">
         <v>129.62962962962999</v>
       </c>
-      <c r="O31" s="24">
-        <v>0</v>
-      </c>
-      <c r="P31" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="25">
+      <c r="O31" s="10">
+        <v>0</v>
+      </c>
+      <c r="P31" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="11">
         <v>319.56315289648597</v>
       </c>
       <c r="T31" t="s">
@@ -6096,47 +5874,47 @@
       </c>
     </row>
     <row r="32" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="55" t="s">
+      <c r="A32" s="77"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="67">
-        <v>0</v>
-      </c>
-      <c r="G32" s="23">
+      <c r="F32" s="37">
+        <v>0</v>
+      </c>
+      <c r="G32" s="9">
         <v>51</v>
       </c>
-      <c r="H32" s="23">
+      <c r="H32" s="9">
         <v>340</v>
       </c>
-      <c r="I32" s="24">
+      <c r="I32" s="10">
         <v>29.038095238095199</v>
       </c>
-      <c r="J32" s="24">
+      <c r="J32" s="10">
         <v>184.84761904761899</v>
       </c>
-      <c r="K32" s="30">
+      <c r="K32" s="16">
         <v>0.11764705882352899</v>
       </c>
-      <c r="L32" s="24">
+      <c r="L32" s="10">
         <v>17.647058823529399</v>
       </c>
-      <c r="M32" s="24">
+      <c r="M32" s="10">
         <v>51.764705882352899</v>
       </c>
-      <c r="N32" s="24">
+      <c r="N32" s="10">
         <v>53.039215686274503</v>
       </c>
-      <c r="O32" s="24">
-        <v>0</v>
-      </c>
-      <c r="P32" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="25">
+      <c r="O32" s="10">
+        <v>0</v>
+      </c>
+      <c r="P32" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="11">
         <v>421.218487394958</v>
       </c>
       <c r="T32" t="s">
@@ -6147,49 +5925,49 @@
       </c>
     </row>
     <row r="33" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="45" t="s">
+      <c r="A33" s="77"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="55" t="s">
+      <c r="E33" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="67">
-        <v>0</v>
-      </c>
-      <c r="G33" s="23">
+      <c r="F33" s="37">
+        <v>0</v>
+      </c>
+      <c r="G33" s="9">
         <v>6</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H33" s="9">
         <v>71</v>
       </c>
-      <c r="I33" s="24">
+      <c r="I33" s="10">
         <v>5</v>
       </c>
-      <c r="J33" s="24">
+      <c r="J33" s="10">
         <v>35</v>
       </c>
-      <c r="K33" s="30">
-        <v>0</v>
-      </c>
-      <c r="L33" s="24">
-        <v>0</v>
-      </c>
-      <c r="M33" s="24">
-        <v>0</v>
-      </c>
-      <c r="N33" s="24">
+      <c r="K33" s="16">
+        <v>0</v>
+      </c>
+      <c r="L33" s="10">
+        <v>0</v>
+      </c>
+      <c r="M33" s="10">
+        <v>0</v>
+      </c>
+      <c r="N33" s="10">
         <v>239.43661971831</v>
       </c>
-      <c r="O33" s="24">
-        <v>0</v>
-      </c>
-      <c r="P33" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="25">
+      <c r="O33" s="10">
+        <v>0</v>
+      </c>
+      <c r="P33" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="11">
         <v>253.52112676056299</v>
       </c>
       <c r="T33" t="s">
@@ -6200,47 +5978,47 @@
       </c>
     </row>
     <row r="34" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="55" t="s">
+      <c r="A34" s="77"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="67">
+      <c r="F34" s="37">
         <v>1</v>
       </c>
-      <c r="G34" s="23">
+      <c r="G34" s="9">
         <v>1</v>
       </c>
-      <c r="H34" s="23">
+      <c r="H34" s="9">
         <v>5</v>
       </c>
-      <c r="I34" s="24">
+      <c r="I34" s="10">
         <v>2</v>
       </c>
-      <c r="J34" s="24">
+      <c r="J34" s="10">
         <v>8</v>
       </c>
-      <c r="K34" s="30">
+      <c r="K34" s="16">
         <v>5</v>
       </c>
-      <c r="L34" s="24">
+      <c r="L34" s="10">
         <v>1000</v>
       </c>
-      <c r="M34" s="24">
-        <v>0</v>
-      </c>
-      <c r="N34" s="24">
+      <c r="M34" s="10">
+        <v>0</v>
+      </c>
+      <c r="N34" s="10">
         <v>600</v>
       </c>
-      <c r="O34" s="24">
-        <v>0</v>
-      </c>
-      <c r="P34" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="25">
+      <c r="O34" s="10">
+        <v>0</v>
+      </c>
+      <c r="P34" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="11">
         <v>0</v>
       </c>
       <c r="T34" t="s">
@@ -6251,51 +6029,51 @@
       </c>
     </row>
     <row r="35" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="45" t="s">
+      <c r="A35" s="77"/>
+      <c r="B35" s="79"/>
+      <c r="C35" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="44" t="s">
+      <c r="D35" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="55" t="s">
+      <c r="E35" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F35" s="67">
-        <v>0</v>
-      </c>
-      <c r="G35" s="23">
+      <c r="F35" s="37">
+        <v>0</v>
+      </c>
+      <c r="G35" s="9">
         <v>40</v>
       </c>
-      <c r="H35" s="23">
+      <c r="H35" s="9">
         <v>200</v>
       </c>
-      <c r="I35" s="24">
+      <c r="I35" s="10">
         <v>4.2</v>
       </c>
-      <c r="J35" s="24">
+      <c r="J35" s="10">
         <v>14.2</v>
       </c>
-      <c r="K35" s="30">
-        <v>0</v>
-      </c>
-      <c r="L35" s="24">
-        <v>0</v>
-      </c>
-      <c r="M35" s="24">
+      <c r="K35" s="16">
+        <v>0</v>
+      </c>
+      <c r="L35" s="10">
+        <v>0</v>
+      </c>
+      <c r="M35" s="10">
         <v>20</v>
       </c>
-      <c r="N35" s="24">
+      <c r="N35" s="10">
         <v>50</v>
       </c>
-      <c r="O35" s="24">
-        <v>0</v>
-      </c>
-      <c r="P35" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="25">
+      <c r="O35" s="10">
+        <v>0</v>
+      </c>
+      <c r="P35" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="11">
         <v>1</v>
       </c>
       <c r="T35" t="s">
@@ -6306,49 +6084,49 @@
       </c>
     </row>
     <row r="36" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="44" t="s">
+      <c r="A36" s="77"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="55" t="s">
+      <c r="E36" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F36" s="67">
+      <c r="F36" s="37">
         <v>1</v>
       </c>
-      <c r="G36" s="23">
+      <c r="G36" s="9">
         <v>1</v>
       </c>
-      <c r="H36" s="23">
+      <c r="H36" s="9">
         <v>6</v>
       </c>
-      <c r="I36" s="24">
-        <v>0</v>
-      </c>
-      <c r="J36" s="24">
-        <v>0</v>
-      </c>
-      <c r="K36" s="30">
-        <v>0</v>
-      </c>
-      <c r="L36" s="24">
-        <v>0</v>
-      </c>
-      <c r="M36" s="24">
-        <v>0</v>
-      </c>
-      <c r="N36" s="24">
-        <v>0</v>
-      </c>
-      <c r="O36" s="24">
-        <v>0</v>
-      </c>
-      <c r="P36" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="25">
+      <c r="I36" s="10">
+        <v>0</v>
+      </c>
+      <c r="J36" s="10">
+        <v>0</v>
+      </c>
+      <c r="K36" s="16">
+        <v>0</v>
+      </c>
+      <c r="L36" s="10">
+        <v>0</v>
+      </c>
+      <c r="M36" s="10">
+        <v>0</v>
+      </c>
+      <c r="N36" s="10">
+        <v>0</v>
+      </c>
+      <c r="O36" s="10">
+        <v>0</v>
+      </c>
+      <c r="P36" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="11">
         <v>0</v>
       </c>
       <c r="T36" t="s">
@@ -6359,49 +6137,49 @@
       </c>
     </row>
     <row r="37" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="42"/>
-      <c r="B37" s="73"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="58" t="s">
+      <c r="A37" s="78"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="59" t="s">
+      <c r="E37" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="F37" s="68">
+      <c r="F37" s="38">
         <v>1</v>
       </c>
-      <c r="G37" s="26">
+      <c r="G37" s="12">
         <v>1</v>
       </c>
-      <c r="H37" s="26">
+      <c r="H37" s="12">
         <v>1</v>
       </c>
-      <c r="I37" s="27">
-        <v>0</v>
-      </c>
-      <c r="J37" s="27">
-        <v>0</v>
-      </c>
-      <c r="K37" s="31">
-        <v>0</v>
-      </c>
-      <c r="L37" s="27">
-        <v>0</v>
-      </c>
-      <c r="M37" s="27">
-        <v>0</v>
-      </c>
-      <c r="N37" s="27">
-        <v>0</v>
-      </c>
-      <c r="O37" s="27">
-        <v>0</v>
-      </c>
-      <c r="P37" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="28">
+      <c r="I37" s="13">
+        <v>0</v>
+      </c>
+      <c r="J37" s="13">
+        <v>0</v>
+      </c>
+      <c r="K37" s="17">
+        <v>0</v>
+      </c>
+      <c r="L37" s="13">
+        <v>0</v>
+      </c>
+      <c r="M37" s="13">
+        <v>0</v>
+      </c>
+      <c r="N37" s="13">
+        <v>0</v>
+      </c>
+      <c r="O37" s="13">
+        <v>0</v>
+      </c>
+      <c r="P37" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="14">
         <v>0</v>
       </c>
       <c r="T37" t="s">
@@ -6413,11 +6191,22 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="B23:C24"/>
-    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A4:A24"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="G1:J2"/>
+    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="A25:A37"/>
+    <mergeCell ref="B25:B37"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="C35:C37"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="D33:D34"/>
@@ -6425,30 +6214,19 @@
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C7:C12"/>
-    <mergeCell ref="A25:A37"/>
-    <mergeCell ref="B25:B37"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="G1:J2"/>
-    <mergeCell ref="K1:Q1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="A4:A24"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="D25:D26"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:Q37">
-    <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G37">
-    <cfRule type="top10" dxfId="48" priority="203" rank="1"/>
+    <cfRule type="top10" dxfId="11" priority="203" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L37">
     <cfRule type="dataBar" priority="205">
@@ -6463,7 +6241,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="top10" dxfId="47" priority="206" rank="1"/>
+    <cfRule type="top10" dxfId="10" priority="206" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M37">
     <cfRule type="dataBar" priority="209">
@@ -6478,7 +6256,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="top10" dxfId="46" priority="210" rank="1"/>
+    <cfRule type="top10" dxfId="9" priority="210" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N37">
     <cfRule type="dataBar" priority="213">
@@ -6493,7 +6271,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="top10" dxfId="45" priority="214" rank="1"/>
+    <cfRule type="top10" dxfId="8" priority="214" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:O37">
     <cfRule type="dataBar" priority="217">
@@ -6508,7 +6286,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="top10" dxfId="44" priority="218" rank="1"/>
+    <cfRule type="top10" dxfId="7" priority="218" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P37">
     <cfRule type="dataBar" priority="221">
@@ -6523,7 +6301,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="top10" dxfId="43" priority="222" rank="1"/>
+    <cfRule type="top10" dxfId="6" priority="222" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:Q37">
     <cfRule type="dataBar" priority="225">
@@ -6538,16 +6316,16 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="top10" dxfId="42" priority="226" rank="1"/>
+    <cfRule type="top10" dxfId="5" priority="226" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H37">
-    <cfRule type="top10" dxfId="41" priority="229" rank="1"/>
+    <cfRule type="top10" dxfId="4" priority="229" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I37">
-    <cfRule type="top10" dxfId="40" priority="231" rank="1"/>
+    <cfRule type="top10" dxfId="3" priority="231" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J37">
-    <cfRule type="top10" dxfId="39" priority="233" rank="1"/>
+    <cfRule type="top10" dxfId="2" priority="233" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K37">
     <cfRule type="dataBar" priority="235">
@@ -6562,10 +6340,10 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="top10" dxfId="38" priority="236" rank="1"/>
+    <cfRule type="top10" dxfId="1" priority="236" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T4:T37">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6657,7 +6435,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10933,7 +10711,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R76"/>
+  <autoFilter ref="A1:R76" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
